--- a/Diagnostico_EB/Propuestas_Formatos/DiagnosticoEB_Promoción-Ingreso.xlsx
+++ b/Diagnostico_EB/Propuestas_Formatos/DiagnosticoEB_Promoción-Ingreso.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12000" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14040" windowHeight="9720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Ingreso" sheetId="1" r:id="rId1"/>
     <sheet name="Promoción" sheetId="4" r:id="rId2"/>
     <sheet name="Notas" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="113">
   <si>
     <t>Figura</t>
   </si>
@@ -366,12 +366,6 @@
     <t>Escenario del instrumento</t>
   </si>
   <si>
-    <t>Total en base</t>
-  </si>
-  <si>
-    <t>En base</t>
-  </si>
-  <si>
     <t>DOF</t>
   </si>
   <si>
@@ -391,13 +385,16 @@
   </si>
   <si>
     <t>[4] + 1</t>
+  </si>
+  <si>
+    <t>[4] + 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -473,14 +470,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -533,12 +522,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -552,6 +535,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF9999"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -744,7 +733,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -767,16 +756,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -784,24 +766,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -855,33 +824,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -915,10 +857,10 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -938,9 +880,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -954,9 +893,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -967,15 +903,116 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -985,83 +1022,44 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1233,7 +1231,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1268,7 +1266,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1445,7 +1443,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1480,1266 +1478,1266 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="96" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="92"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="98"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="99" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="85"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="101"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="45"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="42" t="s">
+      <c r="E3" s="103"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="44" t="s">
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="112"/>
+      <c r="K3" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="46"/>
-      <c r="M3" s="89" t="s">
+      <c r="L3" s="104"/>
+      <c r="M3" s="64" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="19"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="51" t="s">
+      <c r="A4" s="106"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="51" t="s">
+      <c r="E4" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="60" t="s">
+      <c r="G4" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="H4" s="61" t="s">
+      <c r="H4" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="61" t="s">
+      <c r="I4" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="61" t="s">
+      <c r="J4" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="K4" s="23" t="s">
+      <c r="K4" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="23" t="s">
+      <c r="L4" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="M4" s="22" t="s">
+      <c r="M4" s="14" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="38">
+      <c r="A5" s="30">
         <v>1</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="22">
         <v>116246</v>
       </c>
-      <c r="D5" s="52">
+      <c r="D5" s="35">
         <v>44</v>
       </c>
-      <c r="E5" s="109">
+      <c r="E5" s="75">
         <v>5</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="17">
         <v>2</v>
       </c>
-      <c r="G5" s="24">
-        <v>120</v>
-      </c>
-      <c r="H5" s="31">
+      <c r="G5" s="16">
+        <v>120</v>
+      </c>
+      <c r="H5" s="23">
         <f>G5-J5</f>
         <v>41</v>
       </c>
-      <c r="I5" s="57">
+      <c r="I5" s="40">
         <f>(H5)/G5</f>
         <v>0.34166666666666667</v>
       </c>
-      <c r="J5" s="25">
+      <c r="J5" s="17">
         <v>79</v>
       </c>
-      <c r="K5" s="62">
+      <c r="K5" s="45">
         <v>0.85</v>
       </c>
-      <c r="L5" s="101" t="s">
-        <v>108</v>
-      </c>
-      <c r="M5" s="107" t="s">
-        <v>111</v>
+      <c r="L5" s="67" t="s">
+        <v>106</v>
+      </c>
+      <c r="M5" s="73" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="38">
+      <c r="A6" s="30">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="30">
+      <c r="C6" s="22">
         <v>21331</v>
       </c>
-      <c r="D6" s="53">
+      <c r="D6" s="36">
         <v>45</v>
       </c>
-      <c r="E6" s="34">
+      <c r="E6" s="26">
         <v>0</v>
       </c>
-      <c r="F6" s="27">
+      <c r="F6" s="19">
         <v>5</v>
       </c>
-      <c r="G6" s="26">
-        <v>120</v>
-      </c>
-      <c r="H6" s="13">
+      <c r="G6" s="18">
+        <v>120</v>
+      </c>
+      <c r="H6" s="10">
         <f t="shared" ref="H6:H31" si="0">G6-J6</f>
         <v>39</v>
       </c>
-      <c r="I6" s="58">
+      <c r="I6" s="41">
         <f>(H6)/G6</f>
         <v>0.32500000000000001</v>
       </c>
-      <c r="J6" s="27">
+      <c r="J6" s="19">
         <v>81</v>
       </c>
-      <c r="K6" s="32">
+      <c r="K6" s="24">
         <v>0.88</v>
       </c>
-      <c r="L6" s="102" t="s">
+      <c r="L6" s="68" t="s">
         <v>99</v>
       </c>
-      <c r="M6" s="90"/>
+      <c r="M6" s="65"/>
     </row>
     <row r="7" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="38">
+      <c r="A7" s="30">
         <f t="shared" ref="A7:A31" si="1">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="22">
         <v>721</v>
       </c>
-      <c r="D7" s="53">
+      <c r="D7" s="36">
         <v>49</v>
       </c>
-      <c r="E7" s="106">
+      <c r="E7" s="72">
         <v>6</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="19">
         <v>0</v>
       </c>
-      <c r="G7" s="26">
-        <v>120</v>
-      </c>
-      <c r="H7" s="13">
+      <c r="G7" s="18">
+        <v>120</v>
+      </c>
+      <c r="H7" s="10">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="I7" s="58">
+      <c r="I7" s="41">
         <f t="shared" ref="I7:I31" si="2">(H7)/G7</f>
         <v>0.34166666666666667</v>
       </c>
-      <c r="J7" s="27">
+      <c r="J7" s="19">
         <v>79</v>
       </c>
-      <c r="K7" s="32">
+      <c r="K7" s="24">
         <v>0.85</v>
       </c>
-      <c r="L7" s="101" t="s">
-        <v>108</v>
-      </c>
-      <c r="M7" s="107" t="s">
-        <v>111</v>
+      <c r="L7" s="67" t="s">
+        <v>106</v>
+      </c>
+      <c r="M7" s="73" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="38">
+      <c r="A8" s="30">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C8" s="22">
         <v>39402</v>
       </c>
-      <c r="D8" s="53">
+      <c r="D8" s="36">
         <v>47</v>
       </c>
-      <c r="E8" s="34">
+      <c r="E8" s="26">
         <v>0</v>
       </c>
-      <c r="F8" s="27">
+      <c r="F8" s="19">
         <v>5</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="18">
         <v>139</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="10">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="I8" s="58">
+      <c r="I8" s="41">
         <f t="shared" si="2"/>
         <v>0.43165467625899279</v>
       </c>
-      <c r="J8" s="27">
+      <c r="J8" s="19">
         <v>79</v>
       </c>
-      <c r="K8" s="32">
+      <c r="K8" s="24">
         <v>0.87</v>
       </c>
-      <c r="L8" s="102" t="s">
+      <c r="L8" s="68" t="s">
         <v>99</v>
       </c>
-      <c r="M8" s="90"/>
+      <c r="M8" s="65"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="38">
+      <c r="A9" s="30">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="30">
+      <c r="C9" s="22">
         <v>983</v>
       </c>
-      <c r="D9" s="53">
+      <c r="D9" s="36">
         <v>49</v>
       </c>
-      <c r="E9" s="106">
+      <c r="E9" s="72">
         <v>2</v>
       </c>
-      <c r="F9" s="27">
+      <c r="F9" s="19">
         <v>3</v>
       </c>
-      <c r="G9" s="26">
-        <v>120</v>
-      </c>
-      <c r="H9" s="13">
+      <c r="G9" s="18">
+        <v>120</v>
+      </c>
+      <c r="H9" s="10">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="I9" s="58">
+      <c r="I9" s="41">
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="J9" s="27">
+      <c r="J9" s="19">
         <v>80</v>
       </c>
-      <c r="K9" s="32">
+      <c r="K9" s="24">
         <v>0.88</v>
       </c>
-      <c r="L9" s="103" t="s">
-        <v>107</v>
-      </c>
-      <c r="M9" s="107" t="s">
-        <v>111</v>
+      <c r="L9" s="69" t="s">
+        <v>105</v>
+      </c>
+      <c r="M9" s="73" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="38">
+      <c r="A10" s="30">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="30">
+      <c r="C10" s="22">
         <v>680</v>
       </c>
-      <c r="D10" s="53">
+      <c r="D10" s="36">
         <v>49</v>
       </c>
-      <c r="E10" s="34">
+      <c r="E10" s="26">
         <v>0</v>
       </c>
-      <c r="F10" s="27">
+      <c r="F10" s="19">
         <v>3</v>
       </c>
-      <c r="G10" s="26">
-        <v>120</v>
-      </c>
-      <c r="H10" s="13">
+      <c r="G10" s="18">
+        <v>120</v>
+      </c>
+      <c r="H10" s="10">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="I10" s="58">
+      <c r="I10" s="41">
         <f t="shared" si="2"/>
         <v>0.31666666666666665</v>
       </c>
-      <c r="J10" s="27">
+      <c r="J10" s="19">
         <v>82</v>
       </c>
-      <c r="K10" s="33">
+      <c r="K10" s="25">
         <v>0.84</v>
       </c>
-      <c r="L10" s="101" t="s">
-        <v>108</v>
-      </c>
-      <c r="M10" s="90"/>
+      <c r="L10" s="67" t="s">
+        <v>106</v>
+      </c>
+      <c r="M10" s="65"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="38">
+      <c r="A11" s="30">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="30">
+      <c r="C11" s="22">
         <v>3825</v>
       </c>
-      <c r="D11" s="53">
+      <c r="D11" s="36">
         <v>50</v>
       </c>
-      <c r="E11" s="34">
+      <c r="E11" s="26">
         <v>0</v>
       </c>
-      <c r="F11" s="27">
+      <c r="F11" s="19">
         <v>4</v>
       </c>
-      <c r="G11" s="26">
-        <v>120</v>
-      </c>
-      <c r="H11" s="13">
+      <c r="G11" s="18">
+        <v>120</v>
+      </c>
+      <c r="H11" s="10">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="I11" s="58">
+      <c r="I11" s="41">
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="J11" s="27">
+      <c r="J11" s="19">
         <v>80</v>
       </c>
-      <c r="K11" s="33">
+      <c r="K11" s="25">
         <v>0.86</v>
       </c>
-      <c r="L11" s="103" t="s">
-        <v>107</v>
-      </c>
-      <c r="M11" s="90"/>
+      <c r="L11" s="69" t="s">
+        <v>105</v>
+      </c>
+      <c r="M11" s="65"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="38">
+      <c r="A12" s="30">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="30">
+      <c r="C12" s="22">
         <v>5326</v>
       </c>
-      <c r="D12" s="53">
+      <c r="D12" s="36">
         <v>50</v>
       </c>
-      <c r="E12" s="34">
+      <c r="E12" s="26">
         <v>0</v>
       </c>
-      <c r="F12" s="27">
+      <c r="F12" s="19">
         <v>3</v>
       </c>
-      <c r="G12" s="26">
-        <v>120</v>
-      </c>
-      <c r="H12" s="13">
+      <c r="G12" s="18">
+        <v>120</v>
+      </c>
+      <c r="H12" s="10">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="I12" s="58">
+      <c r="I12" s="41">
         <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
-      <c r="J12" s="27">
+      <c r="J12" s="19">
         <v>90</v>
       </c>
-      <c r="K12" s="33">
+      <c r="K12" s="25">
         <v>0.91</v>
       </c>
-      <c r="L12" s="103" t="s">
-        <v>107</v>
-      </c>
-      <c r="M12" s="90"/>
+      <c r="L12" s="69" t="s">
+        <v>105</v>
+      </c>
+      <c r="M12" s="65"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="38">
+      <c r="A13" s="30">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="30">
+      <c r="C13" s="22">
         <v>3290</v>
       </c>
-      <c r="D13" s="53">
+      <c r="D13" s="36">
         <v>50</v>
       </c>
-      <c r="E13" s="34">
+      <c r="E13" s="26">
         <v>0</v>
       </c>
-      <c r="F13" s="27">
+      <c r="F13" s="19">
         <v>3</v>
       </c>
-      <c r="G13" s="26">
-        <v>120</v>
-      </c>
-      <c r="H13" s="13">
+      <c r="G13" s="18">
+        <v>120</v>
+      </c>
+      <c r="H13" s="10">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="I13" s="58">
+      <c r="I13" s="41">
         <f t="shared" si="2"/>
         <v>0.26666666666666666</v>
       </c>
-      <c r="J13" s="27">
+      <c r="J13" s="19">
         <v>88</v>
       </c>
-      <c r="K13" s="33">
+      <c r="K13" s="25">
         <v>0.89</v>
       </c>
-      <c r="L13" s="103" t="s">
-        <v>107</v>
-      </c>
-      <c r="M13" s="90"/>
+      <c r="L13" s="69" t="s">
+        <v>105</v>
+      </c>
+      <c r="M13" s="65"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="38">
+      <c r="A14" s="30">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="30">
+      <c r="C14" s="22">
         <v>943</v>
       </c>
-      <c r="D14" s="53">
+      <c r="D14" s="36">
         <v>50</v>
       </c>
-      <c r="E14" s="106">
+      <c r="E14" s="72">
         <v>2</v>
       </c>
-      <c r="F14" s="27">
+      <c r="F14" s="19">
         <v>2</v>
       </c>
-      <c r="G14" s="26">
-        <v>120</v>
-      </c>
-      <c r="H14" s="13">
+      <c r="G14" s="18">
+        <v>120</v>
+      </c>
+      <c r="H14" s="10">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="I14" s="58">
+      <c r="I14" s="41">
         <f t="shared" si="2"/>
         <v>0.30833333333333335</v>
       </c>
-      <c r="J14" s="27">
+      <c r="J14" s="19">
         <v>83</v>
       </c>
-      <c r="K14" s="33">
+      <c r="K14" s="25">
         <v>0.88</v>
       </c>
-      <c r="L14" s="103" t="s">
-        <v>107</v>
-      </c>
-      <c r="M14" s="107" t="s">
-        <v>111</v>
+      <c r="L14" s="69" t="s">
+        <v>105</v>
+      </c>
+      <c r="M14" s="73" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="38">
+      <c r="A15" s="30">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="30">
+      <c r="C15" s="22">
         <v>1594</v>
       </c>
-      <c r="D15" s="53">
+      <c r="D15" s="36">
         <v>50</v>
       </c>
-      <c r="E15" s="34">
+      <c r="E15" s="26">
         <v>0</v>
       </c>
-      <c r="F15" s="27">
+      <c r="F15" s="19">
         <v>4</v>
       </c>
-      <c r="G15" s="26">
-        <v>120</v>
-      </c>
-      <c r="H15" s="13">
+      <c r="G15" s="18">
+        <v>120</v>
+      </c>
+      <c r="H15" s="10">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="I15" s="58">
+      <c r="I15" s="41">
         <f t="shared" si="2"/>
         <v>0.35833333333333334</v>
       </c>
-      <c r="J15" s="27">
+      <c r="J15" s="19">
         <v>77</v>
       </c>
-      <c r="K15" s="33">
+      <c r="K15" s="25">
         <v>0.87</v>
       </c>
-      <c r="L15" s="102" t="s">
+      <c r="L15" s="68" t="s">
         <v>99</v>
       </c>
-      <c r="M15" s="90"/>
+      <c r="M15" s="65"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="38">
+      <c r="A16" s="30">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="30">
+      <c r="C16" s="22">
         <v>822</v>
       </c>
-      <c r="D16" s="53">
+      <c r="D16" s="36">
         <v>48</v>
       </c>
-      <c r="E16" s="34">
+      <c r="E16" s="26">
         <v>0</v>
       </c>
-      <c r="F16" s="27">
+      <c r="F16" s="19">
         <v>5</v>
       </c>
-      <c r="G16" s="26">
-        <v>120</v>
-      </c>
-      <c r="H16" s="13">
+      <c r="G16" s="18">
+        <v>120</v>
+      </c>
+      <c r="H16" s="10">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="I16" s="58">
+      <c r="I16" s="41">
         <f t="shared" si="2"/>
         <v>0.375</v>
       </c>
-      <c r="J16" s="27">
+      <c r="J16" s="19">
         <v>75</v>
       </c>
-      <c r="K16" s="33">
+      <c r="K16" s="25">
         <v>0.86</v>
       </c>
-      <c r="L16" s="102" t="s">
+      <c r="L16" s="68" t="s">
         <v>99</v>
       </c>
-      <c r="M16" s="90"/>
+      <c r="M16" s="65"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="38">
+      <c r="A17" s="30">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="30">
+      <c r="C17" s="22">
         <v>2093</v>
       </c>
-      <c r="D17" s="53">
+      <c r="D17" s="36">
         <v>49</v>
       </c>
-      <c r="E17" s="34">
+      <c r="E17" s="26">
         <v>0</v>
       </c>
-      <c r="F17" s="27">
+      <c r="F17" s="19">
         <v>3</v>
       </c>
-      <c r="G17" s="26">
-        <v>120</v>
-      </c>
-      <c r="H17" s="13">
+      <c r="G17" s="18">
+        <v>120</v>
+      </c>
+      <c r="H17" s="10">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="I17" s="58">
+      <c r="I17" s="41">
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="J17" s="27">
+      <c r="J17" s="19">
         <v>80</v>
       </c>
-      <c r="K17" s="33">
+      <c r="K17" s="25">
         <v>0.88</v>
       </c>
-      <c r="L17" s="103" t="s">
-        <v>107</v>
-      </c>
-      <c r="M17" s="90"/>
+      <c r="L17" s="69" t="s">
+        <v>105</v>
+      </c>
+      <c r="M17" s="65"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="38">
+      <c r="A18" s="30">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="30">
+      <c r="C18" s="22">
         <v>4584</v>
       </c>
-      <c r="D18" s="53">
+      <c r="D18" s="36">
         <v>50</v>
       </c>
-      <c r="E18" s="34">
+      <c r="E18" s="26">
         <v>0</v>
       </c>
-      <c r="F18" s="27">
+      <c r="F18" s="19">
         <v>5</v>
       </c>
-      <c r="G18" s="26">
-        <v>120</v>
-      </c>
-      <c r="H18" s="13">
+      <c r="G18" s="18">
+        <v>120</v>
+      </c>
+      <c r="H18" s="10">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="I18" s="58">
+      <c r="I18" s="41">
         <f t="shared" si="2"/>
         <v>0.34166666666666667</v>
       </c>
-      <c r="J18" s="27">
+      <c r="J18" s="19">
         <v>79</v>
       </c>
-      <c r="K18" s="33">
+      <c r="K18" s="25">
         <v>0.87</v>
       </c>
-      <c r="L18" s="102" t="s">
+      <c r="L18" s="68" t="s">
         <v>99</v>
       </c>
-      <c r="M18" s="90"/>
+      <c r="M18" s="65"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="38">
+      <c r="A19" s="30">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="30">
+      <c r="C19" s="22">
         <v>1579</v>
       </c>
-      <c r="D19" s="53">
+      <c r="D19" s="36">
         <v>49</v>
       </c>
-      <c r="E19" s="106">
+      <c r="E19" s="72">
         <v>3</v>
       </c>
-      <c r="F19" s="27">
+      <c r="F19" s="19">
         <v>4</v>
       </c>
-      <c r="G19" s="26">
-        <v>120</v>
-      </c>
-      <c r="H19" s="13">
+      <c r="G19" s="18">
+        <v>120</v>
+      </c>
+      <c r="H19" s="10">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="I19" s="58">
+      <c r="I19" s="41">
         <f t="shared" si="2"/>
         <v>0.375</v>
       </c>
-      <c r="J19" s="27">
+      <c r="J19" s="19">
         <v>75</v>
       </c>
-      <c r="K19" s="33">
+      <c r="K19" s="25">
         <v>0.83</v>
       </c>
-      <c r="L19" s="102" t="s">
+      <c r="L19" s="68" t="s">
         <v>99</v>
       </c>
-      <c r="M19" s="107" t="s">
-        <v>111</v>
+      <c r="M19" s="73" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="38">
+      <c r="A20" s="30">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="30">
+      <c r="C20" s="22">
         <v>796</v>
       </c>
-      <c r="D20" s="53">
+      <c r="D20" s="36">
         <v>50</v>
       </c>
-      <c r="E20" s="106">
+      <c r="E20" s="72">
         <v>4</v>
       </c>
-      <c r="F20" s="27">
+      <c r="F20" s="19">
         <v>3</v>
       </c>
-      <c r="G20" s="26">
-        <v>120</v>
-      </c>
-      <c r="H20" s="13">
+      <c r="G20" s="18">
+        <v>120</v>
+      </c>
+      <c r="H20" s="10">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="I20" s="58">
+      <c r="I20" s="41">
         <f t="shared" si="2"/>
         <v>0.29166666666666669</v>
       </c>
-      <c r="J20" s="27">
+      <c r="J20" s="19">
         <v>85</v>
       </c>
-      <c r="K20" s="33">
+      <c r="K20" s="25">
         <v>0.88</v>
       </c>
-      <c r="L20" s="103" t="s">
-        <v>107</v>
-      </c>
-      <c r="M20" s="107" t="s">
-        <v>111</v>
+      <c r="L20" s="69" t="s">
+        <v>105</v>
+      </c>
+      <c r="M20" s="73" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="38">
+      <c r="A21" s="30">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="30">
+      <c r="C21" s="22">
         <v>325</v>
       </c>
-      <c r="D21" s="53">
+      <c r="D21" s="36">
         <v>50</v>
       </c>
-      <c r="E21" s="106">
+      <c r="E21" s="72">
         <v>1</v>
       </c>
-      <c r="F21" s="27">
+      <c r="F21" s="19">
         <v>2</v>
       </c>
-      <c r="G21" s="26">
-        <v>120</v>
-      </c>
-      <c r="H21" s="13">
+      <c r="G21" s="18">
+        <v>120</v>
+      </c>
+      <c r="H21" s="10">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="I21" s="58">
+      <c r="I21" s="41">
         <f t="shared" si="2"/>
         <v>0.32500000000000001</v>
       </c>
-      <c r="J21" s="27">
+      <c r="J21" s="19">
         <v>81</v>
       </c>
-      <c r="K21" s="33">
+      <c r="K21" s="25">
         <v>0.87</v>
       </c>
-      <c r="L21" s="101" t="s">
-        <v>108</v>
-      </c>
-      <c r="M21" s="107" t="s">
-        <v>111</v>
+      <c r="L21" s="67" t="s">
+        <v>106</v>
+      </c>
+      <c r="M21" s="73" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="38">
+      <c r="A22" s="30">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="30">
+      <c r="C22" s="22">
         <v>183</v>
       </c>
-      <c r="D22" s="53">
+      <c r="D22" s="36">
         <v>50</v>
       </c>
-      <c r="E22" s="106">
+      <c r="E22" s="72">
         <v>1</v>
       </c>
-      <c r="F22" s="27">
+      <c r="F22" s="19">
         <v>4</v>
       </c>
-      <c r="G22" s="26">
-        <v>120</v>
-      </c>
-      <c r="H22" s="13">
+      <c r="G22" s="18">
+        <v>120</v>
+      </c>
+      <c r="H22" s="10">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="I22" s="58">
+      <c r="I22" s="41">
         <f t="shared" si="2"/>
         <v>0.38333333333333336</v>
       </c>
-      <c r="J22" s="27">
+      <c r="J22" s="19">
         <v>74</v>
       </c>
-      <c r="K22" s="33">
+      <c r="K22" s="25">
         <v>0.86</v>
       </c>
-      <c r="L22" s="104" t="s">
-        <v>109</v>
-      </c>
-      <c r="M22" s="107" t="s">
-        <v>111</v>
+      <c r="L22" s="70" t="s">
+        <v>107</v>
+      </c>
+      <c r="M22" s="73" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="38">
+      <c r="A23" s="30">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B23" s="88" t="s">
+      <c r="B23" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="86">
+      <c r="C23" s="61">
         <v>62</v>
       </c>
-      <c r="D23" s="70">
+      <c r="D23" s="52">
         <v>50</v>
       </c>
-      <c r="E23" s="106">
+      <c r="E23" s="72">
         <v>2</v>
       </c>
-      <c r="F23" s="49">
+      <c r="F23" s="32">
         <v>5</v>
       </c>
-      <c r="G23" s="72">
-        <v>120</v>
-      </c>
-      <c r="H23" s="50">
+      <c r="G23" s="54">
+        <v>120</v>
+      </c>
+      <c r="H23" s="33">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="I23" s="73">
+      <c r="I23" s="55">
         <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
-      <c r="J23" s="49">
+      <c r="J23" s="32">
         <v>72</v>
       </c>
-      <c r="K23" s="74">
+      <c r="K23" s="56">
         <v>0.86</v>
       </c>
-      <c r="L23" s="105" t="s">
-        <v>110</v>
-      </c>
-      <c r="M23" s="107" t="s">
-        <v>111</v>
+      <c r="L23" s="71" t="s">
+        <v>108</v>
+      </c>
+      <c r="M23" s="73" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="38">
+      <c r="A24" s="30">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="30">
+      <c r="C24" s="22">
         <v>7161</v>
       </c>
-      <c r="D24" s="53">
+      <c r="D24" s="36">
         <v>50</v>
       </c>
-      <c r="E24" s="106">
+      <c r="E24" s="72">
         <v>4</v>
       </c>
-      <c r="F24" s="27">
+      <c r="F24" s="19">
         <v>3</v>
       </c>
-      <c r="G24" s="26">
-        <v>120</v>
-      </c>
-      <c r="H24" s="13">
+      <c r="G24" s="18">
+        <v>120</v>
+      </c>
+      <c r="H24" s="10">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="I24" s="58">
+      <c r="I24" s="41">
         <f t="shared" si="2"/>
         <v>0.32500000000000001</v>
       </c>
-      <c r="J24" s="27">
+      <c r="J24" s="19">
         <v>81</v>
       </c>
-      <c r="K24" s="33">
+      <c r="K24" s="25">
         <v>0.82</v>
       </c>
-      <c r="L24" s="101" t="s">
-        <v>108</v>
-      </c>
-      <c r="M24" s="107" t="s">
-        <v>111</v>
+      <c r="L24" s="67" t="s">
+        <v>106</v>
+      </c>
+      <c r="M24" s="73" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="38">
+      <c r="A25" s="30">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="30">
+      <c r="C25" s="22">
         <v>7984</v>
       </c>
-      <c r="D25" s="53">
+      <c r="D25" s="36">
         <v>50</v>
       </c>
-      <c r="E25" s="34">
+      <c r="E25" s="26">
         <v>0</v>
       </c>
-      <c r="F25" s="27">
+      <c r="F25" s="19">
         <v>4</v>
       </c>
-      <c r="G25" s="26">
-        <v>120</v>
-      </c>
-      <c r="H25" s="13">
+      <c r="G25" s="18">
+        <v>120</v>
+      </c>
+      <c r="H25" s="10">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="I25" s="58">
+      <c r="I25" s="41">
         <f t="shared" si="2"/>
         <v>0.31666666666666665</v>
       </c>
-      <c r="J25" s="27">
+      <c r="J25" s="19">
         <v>82</v>
       </c>
-      <c r="K25" s="33">
+      <c r="K25" s="25">
         <v>0.85</v>
       </c>
-      <c r="L25" s="103" t="s">
-        <v>107</v>
-      </c>
-      <c r="M25" s="90"/>
+      <c r="L25" s="69" t="s">
+        <v>105</v>
+      </c>
+      <c r="M25" s="65"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="38">
+      <c r="A26" s="30">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="30">
+      <c r="C26" s="22">
         <v>10743</v>
       </c>
-      <c r="D26" s="53">
+      <c r="D26" s="36">
         <v>48</v>
       </c>
-      <c r="E26" s="106">
+      <c r="E26" s="72">
         <v>4</v>
       </c>
-      <c r="F26" s="27">
+      <c r="F26" s="19">
         <v>1</v>
       </c>
-      <c r="G26" s="26">
-        <v>120</v>
-      </c>
-      <c r="H26" s="13">
+      <c r="G26" s="18">
+        <v>120</v>
+      </c>
+      <c r="H26" s="10">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="I26" s="58">
+      <c r="I26" s="41">
         <f t="shared" si="2"/>
         <v>0.29166666666666669</v>
       </c>
-      <c r="J26" s="27">
+      <c r="J26" s="19">
         <v>85</v>
       </c>
-      <c r="K26" s="33">
+      <c r="K26" s="25">
         <v>0.82</v>
       </c>
-      <c r="L26" s="101" t="s">
-        <v>108</v>
-      </c>
-      <c r="M26" s="107" t="s">
-        <v>111</v>
+      <c r="L26" s="67" t="s">
+        <v>106</v>
+      </c>
+      <c r="M26" s="73" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="38">
+      <c r="A27" s="30">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="30">
+      <c r="C27" s="22">
         <v>1048</v>
       </c>
-      <c r="D27" s="53">
+      <c r="D27" s="36">
         <v>50</v>
       </c>
-      <c r="E27" s="106">
+      <c r="E27" s="72">
         <v>2</v>
       </c>
-      <c r="F27" s="27">
+      <c r="F27" s="19">
         <v>10</v>
       </c>
-      <c r="G27" s="26">
-        <v>120</v>
-      </c>
-      <c r="H27" s="13">
+      <c r="G27" s="18">
+        <v>120</v>
+      </c>
+      <c r="H27" s="10">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="I27" s="58">
+      <c r="I27" s="41">
         <f t="shared" si="2"/>
         <v>0.47499999999999998</v>
       </c>
-      <c r="J27" s="27">
+      <c r="J27" s="19">
         <v>63</v>
       </c>
-      <c r="K27" s="33">
+      <c r="K27" s="25">
         <v>0.8</v>
       </c>
-      <c r="L27" s="104" t="s">
-        <v>109</v>
-      </c>
-      <c r="M27" s="107" t="s">
-        <v>111</v>
+      <c r="L27" s="70" t="s">
+        <v>107</v>
+      </c>
+      <c r="M27" s="73" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="38">
+      <c r="A28" s="30">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B28" s="88" t="s">
+      <c r="B28" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="86">
+      <c r="C28" s="61">
         <v>42</v>
       </c>
-      <c r="D28" s="70">
+      <c r="D28" s="52">
         <v>50</v>
       </c>
-      <c r="E28" s="106">
+      <c r="E28" s="72">
         <v>1</v>
       </c>
-      <c r="F28" s="49">
+      <c r="F28" s="32">
         <v>10</v>
       </c>
-      <c r="G28" s="72">
-        <v>120</v>
-      </c>
-      <c r="H28" s="50">
+      <c r="G28" s="54">
+        <v>120</v>
+      </c>
+      <c r="H28" s="33">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="I28" s="73">
+      <c r="I28" s="55">
         <f t="shared" si="2"/>
         <v>0.45</v>
       </c>
-      <c r="J28" s="49">
+      <c r="J28" s="32">
         <v>66</v>
       </c>
-      <c r="K28" s="74">
+      <c r="K28" s="56">
         <v>0.85</v>
       </c>
-      <c r="L28" s="105" t="s">
-        <v>110</v>
-      </c>
-      <c r="M28" s="107" t="s">
-        <v>111</v>
+      <c r="L28" s="71" t="s">
+        <v>108</v>
+      </c>
+      <c r="M28" s="73" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="38">
+      <c r="A29" s="30">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="30">
+      <c r="C29" s="22">
         <v>420</v>
       </c>
-      <c r="D29" s="53">
+      <c r="D29" s="36">
         <v>47</v>
       </c>
-      <c r="E29" s="106">
+      <c r="E29" s="72">
         <v>5</v>
       </c>
-      <c r="F29" s="27">
+      <c r="F29" s="19">
         <v>7</v>
       </c>
-      <c r="G29" s="26">
-        <v>120</v>
-      </c>
-      <c r="H29" s="13">
+      <c r="G29" s="18">
+        <v>120</v>
+      </c>
+      <c r="H29" s="10">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="I29" s="58">
+      <c r="I29" s="41">
         <f t="shared" si="2"/>
         <v>0.46666666666666667</v>
       </c>
-      <c r="J29" s="27">
+      <c r="J29" s="19">
         <v>64</v>
       </c>
-      <c r="K29" s="33">
+      <c r="K29" s="25">
         <v>0.8</v>
       </c>
-      <c r="L29" s="104" t="s">
-        <v>109</v>
-      </c>
-      <c r="M29" s="107" t="s">
-        <v>111</v>
+      <c r="L29" s="70" t="s">
+        <v>107</v>
+      </c>
+      <c r="M29" s="73" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="38">
+      <c r="A30" s="30">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="30">
+      <c r="C30" s="22">
         <v>220</v>
       </c>
-      <c r="D30" s="53">
+      <c r="D30" s="36">
         <v>45</v>
       </c>
-      <c r="E30" s="106">
+      <c r="E30" s="72">
         <v>3</v>
       </c>
-      <c r="F30" s="27">
+      <c r="F30" s="19">
         <v>4</v>
       </c>
-      <c r="G30" s="26">
-        <v>120</v>
-      </c>
-      <c r="H30" s="13">
+      <c r="G30" s="18">
+        <v>120</v>
+      </c>
+      <c r="H30" s="10">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="I30" s="58">
+      <c r="I30" s="41">
         <f t="shared" si="2"/>
         <v>0.35833333333333334</v>
       </c>
-      <c r="J30" s="27">
+      <c r="J30" s="19">
         <v>77</v>
       </c>
-      <c r="K30" s="33">
+      <c r="K30" s="25">
         <v>0.9</v>
       </c>
-      <c r="L30" s="102" t="s">
+      <c r="L30" s="68" t="s">
         <v>99</v>
       </c>
-      <c r="M30" s="107" t="s">
-        <v>111</v>
+      <c r="M30" s="73" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="39">
+      <c r="A31" s="31">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="35">
+      <c r="C31" s="27">
         <v>124</v>
       </c>
-      <c r="D31" s="54">
+      <c r="D31" s="37">
         <v>50</v>
       </c>
-      <c r="E31" s="108">
+      <c r="E31" s="74">
         <v>5</v>
       </c>
-      <c r="F31" s="29">
+      <c r="F31" s="21">
         <v>2</v>
       </c>
-      <c r="G31" s="28">
-        <v>120</v>
-      </c>
-      <c r="H31" s="36">
+      <c r="G31" s="20">
+        <v>120</v>
+      </c>
+      <c r="H31" s="28">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="I31" s="59">
+      <c r="I31" s="42">
         <f t="shared" si="2"/>
         <v>0.41666666666666669</v>
       </c>
-      <c r="J31" s="29">
+      <c r="J31" s="21">
         <v>70</v>
       </c>
-      <c r="K31" s="37">
+      <c r="K31" s="29">
         <v>0.81</v>
       </c>
-      <c r="L31" s="104" t="s">
-        <v>109</v>
-      </c>
-      <c r="M31" s="107" t="s">
-        <v>111</v>
+      <c r="L31" s="70" t="s">
+        <v>107</v>
+      </c>
+      <c r="M31" s="73" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2761,12 +2759,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R43"/>
+  <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="E32" sqref="E32"/>
+      <selection pane="topRight" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2776,1681 +2774,1662 @@
     <col min="3" max="3" width="13.85546875" customWidth="1"/>
     <col min="4" max="5" width="20.28515625" customWidth="1"/>
     <col min="6" max="6" width="16.28515625" customWidth="1"/>
-    <col min="7" max="8" width="16.140625" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1"/>
-    <col min="10" max="11" width="15.140625" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" customWidth="1"/>
-    <col min="13" max="13" width="14" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" customWidth="1"/>
-    <col min="15" max="15" width="16.28515625" customWidth="1"/>
-    <col min="16" max="16" width="18" customWidth="1"/>
-    <col min="17" max="18" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" customWidth="1"/>
+    <col min="14" max="14" width="18" customWidth="1"/>
+    <col min="15" max="16" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:16" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="114" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="113" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="68"/>
-      <c r="Q2" s="68"/>
-      <c r="R2" s="68"/>
-    </row>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="40" t="s">
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
+      <c r="L2" s="113"/>
+      <c r="M2" s="113"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="42" t="s">
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="44" t="s">
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="112"/>
+      <c r="K3" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="46"/>
-      <c r="O3" s="89" t="s">
+      <c r="L3" s="104"/>
+      <c r="M3" s="64" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="19"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="61" t="s">
+    <row r="4" spans="1:16" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="106"/>
+      <c r="B4" s="107"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="61" t="s">
+      <c r="E4" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="F4" s="61" t="s">
+      <c r="F4" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="66" t="s">
+      <c r="G4" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="H4" s="66" t="s">
+      <c r="H4" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="K4" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="45">
+        <v>1</v>
+      </c>
+      <c r="B5" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="48">
+        <v>4213</v>
+      </c>
+      <c r="D5" s="35">
+        <v>48</v>
+      </c>
+      <c r="E5" s="76">
+        <v>4</v>
+      </c>
+      <c r="F5" s="38">
+        <v>2</v>
+      </c>
+      <c r="G5" s="16">
+        <v>122</v>
+      </c>
+      <c r="H5" s="48">
+        <v>49</v>
+      </c>
+      <c r="I5" s="40">
+        <f>H5/G5</f>
+        <v>0.40163934426229508</v>
+      </c>
+      <c r="J5" s="17">
+        <f>G5-H5</f>
+        <v>73</v>
+      </c>
+      <c r="K5" s="60">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="L5" s="82" t="s">
         <v>105</v>
       </c>
-      <c r="I4" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="L4" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="M4" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="N4" s="61" t="s">
-        <v>104</v>
-      </c>
-      <c r="O4" s="23" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="62">
-        <v>1</v>
-      </c>
-      <c r="B5" s="76" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="65">
-        <v>4213</v>
-      </c>
-      <c r="D5" s="52">
-        <v>48</v>
-      </c>
-      <c r="E5" s="110">
-        <v>4</v>
-      </c>
-      <c r="F5" s="55"/>
-      <c r="G5" s="24">
-        <v>122</v>
-      </c>
-      <c r="H5" s="99"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="58">
-        <f t="shared" ref="J5:J32" si="0">I5/G5</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="97">
-        <f>H5-I5</f>
-        <v>0</v>
-      </c>
-      <c r="L5" s="27">
-        <f t="shared" ref="L5:L42" si="1">G5-I5</f>
-        <v>122</v>
-      </c>
-      <c r="M5" s="79">
-        <v>0.85899999999999999</v>
-      </c>
-      <c r="N5" s="80" t="s">
-        <v>107</v>
-      </c>
-      <c r="O5" s="107" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="32">
+      <c r="M5" s="73" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="24">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="30">
+      <c r="C6" s="22">
         <v>8209</v>
       </c>
-      <c r="D6" s="53">
+      <c r="D6" s="36">
         <v>48</v>
       </c>
-      <c r="E6" s="111">
+      <c r="E6" s="77">
         <v>2</v>
       </c>
-      <c r="F6" s="34"/>
-      <c r="G6" s="26">
+      <c r="F6" s="26">
+        <v>1</v>
+      </c>
+      <c r="G6" s="18">
         <v>122</v>
       </c>
-      <c r="H6" s="69"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="58">
-        <f t="shared" si="0"/>
+      <c r="H6" s="22">
+        <v>60</v>
+      </c>
+      <c r="I6" s="41">
+        <f>H6/G6</f>
+        <v>0.49180327868852458</v>
+      </c>
+      <c r="J6" s="19">
+        <f>G6-H6</f>
+        <v>62</v>
+      </c>
+      <c r="K6" s="25">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="L6" s="82" t="s">
+        <v>105</v>
+      </c>
+      <c r="M6" s="73" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="24">
+        <f t="shared" ref="A7:A43" si="0">A6+1</f>
+        <v>3</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="22">
+        <v>5076</v>
+      </c>
+      <c r="D7" s="36">
+        <v>48</v>
+      </c>
+      <c r="E7" s="77">
+        <v>1</v>
+      </c>
+      <c r="F7" s="26">
+        <v>1</v>
+      </c>
+      <c r="G7" s="18">
+        <v>122</v>
+      </c>
+      <c r="H7" s="22">
+        <v>40</v>
+      </c>
+      <c r="I7" s="41">
+        <f>H7/G7</f>
+        <v>0.32786885245901637</v>
+      </c>
+      <c r="J7" s="19">
+        <f>G7-H7</f>
+        <v>82</v>
+      </c>
+      <c r="K7" s="25">
+        <v>0.87</v>
+      </c>
+      <c r="L7" s="82" t="s">
+        <v>105</v>
+      </c>
+      <c r="M7" s="73" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="24">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="22">
+        <v>1363</v>
+      </c>
+      <c r="D8" s="36">
+        <v>48</v>
+      </c>
+      <c r="E8" s="77">
+        <v>2</v>
+      </c>
+      <c r="F8" s="26">
+        <v>2</v>
+      </c>
+      <c r="G8" s="18">
+        <v>122</v>
+      </c>
+      <c r="H8" s="10">
+        <v>52</v>
+      </c>
+      <c r="I8" s="41">
+        <f>H8/G8</f>
+        <v>0.42622950819672129</v>
+      </c>
+      <c r="J8" s="19">
+        <f>G8-H8</f>
+        <v>70</v>
+      </c>
+      <c r="K8" s="25">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="L8" s="81" t="s">
+        <v>106</v>
+      </c>
+      <c r="M8" s="73" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="24">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B9" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="61">
+        <v>57</v>
+      </c>
+      <c r="D9" s="56">
+        <v>37</v>
+      </c>
+      <c r="E9" s="78">
+        <v>2</v>
+      </c>
+      <c r="F9" s="33"/>
+      <c r="G9" s="56">
+        <v>120</v>
+      </c>
+      <c r="H9" s="33"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="80">
+        <v>100</v>
+      </c>
+      <c r="K9" s="56"/>
+      <c r="L9" s="83"/>
+      <c r="M9" s="73" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="24">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="10">
+        <v>898</v>
+      </c>
+      <c r="D10" s="25">
+        <v>39</v>
+      </c>
+      <c r="E10" s="78">
+        <v>2</v>
+      </c>
+      <c r="F10" s="22">
+        <v>1</v>
+      </c>
+      <c r="G10" s="25">
+        <v>120</v>
+      </c>
+      <c r="H10" s="10">
+        <v>45</v>
+      </c>
+      <c r="I10" s="41">
+        <f t="shared" ref="I10:I16" si="1">H10/G10</f>
+        <v>0.375</v>
+      </c>
+      <c r="J10" s="19">
+        <f t="shared" ref="J10:J16" si="2">G10-H10</f>
+        <v>75</v>
+      </c>
+      <c r="K10" s="25">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="L10" s="84" t="s">
+        <v>106</v>
+      </c>
+      <c r="M10" s="73" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="24">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="10">
+        <v>1718</v>
+      </c>
+      <c r="D11" s="25">
+        <v>39</v>
+      </c>
+      <c r="E11" s="22">
         <v>0</v>
       </c>
-      <c r="K6" s="97">
-        <f t="shared" ref="K6:K21" si="2">H6-I6</f>
+      <c r="F11" s="22">
+        <v>2</v>
+      </c>
+      <c r="G11" s="25">
+        <v>120</v>
+      </c>
+      <c r="H11" s="10">
+        <v>45</v>
+      </c>
+      <c r="I11" s="41">
+        <f t="shared" si="1"/>
+        <v>0.375</v>
+      </c>
+      <c r="J11" s="19">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="K11" s="25">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="L11" s="84" t="s">
+        <v>106</v>
+      </c>
+      <c r="M11" s="66"/>
+    </row>
+    <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="24">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="22">
+        <v>97</v>
+      </c>
+      <c r="D12" s="36">
+        <v>41</v>
+      </c>
+      <c r="E12" s="72">
+        <v>6</v>
+      </c>
+      <c r="F12" s="26">
+        <v>3</v>
+      </c>
+      <c r="G12" s="18">
+        <v>120</v>
+      </c>
+      <c r="H12" s="22">
+        <v>55</v>
+      </c>
+      <c r="I12" s="41">
+        <f t="shared" si="1"/>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="J12" s="19">
+        <f t="shared" si="2"/>
+        <v>65</v>
+      </c>
+      <c r="K12" s="25">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="L12" s="85" t="s">
+        <v>107</v>
+      </c>
+      <c r="M12" s="73" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="24">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="10">
+        <v>765</v>
+      </c>
+      <c r="D13" s="25">
+        <v>46</v>
+      </c>
+      <c r="E13" s="22">
         <v>0</v>
       </c>
-      <c r="L6" s="27">
+      <c r="F13" s="22">
+        <v>3</v>
+      </c>
+      <c r="G13" s="25">
+        <v>120</v>
+      </c>
+      <c r="H13" s="22">
+        <v>51</v>
+      </c>
+      <c r="I13" s="41">
         <f t="shared" si="1"/>
-        <v>122</v>
-      </c>
-      <c r="M6" s="33">
-        <v>0.84399999999999997</v>
-      </c>
-      <c r="N6" s="15" t="s">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="J13" s="19">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="K13" s="25">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="L13" s="84" t="s">
+        <v>106</v>
+      </c>
+      <c r="M13" s="66"/>
+    </row>
+    <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="24">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="10">
+        <v>2487</v>
+      </c>
+      <c r="D14" s="25">
+        <v>49</v>
+      </c>
+      <c r="E14" s="78">
+        <v>1</v>
+      </c>
+      <c r="F14" s="22">
+        <v>3</v>
+      </c>
+      <c r="G14" s="25">
+        <v>120</v>
+      </c>
+      <c r="H14" s="22">
+        <v>48</v>
+      </c>
+      <c r="I14" s="41">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="J14" s="19">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="K14" s="25">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="L14" s="84" t="s">
+        <v>106</v>
+      </c>
+      <c r="M14" s="73" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="24">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="10">
+        <v>6017</v>
+      </c>
+      <c r="D15" s="25">
+        <v>49</v>
+      </c>
+      <c r="E15" s="78">
+        <v>2</v>
+      </c>
+      <c r="F15" s="22">
+        <v>1</v>
+      </c>
+      <c r="G15" s="25">
+        <v>120</v>
+      </c>
+      <c r="H15" s="22">
+        <v>51</v>
+      </c>
+      <c r="I15" s="41">
+        <f t="shared" si="1"/>
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="J15" s="19">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="K15" s="25">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="L15" s="86" t="s">
+        <v>99</v>
+      </c>
+      <c r="M15" s="73" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="24">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="10">
+        <v>2109</v>
+      </c>
+      <c r="D16" s="25">
+        <v>49</v>
+      </c>
+      <c r="E16" s="78">
+        <v>2</v>
+      </c>
+      <c r="F16" s="22">
+        <v>5</v>
+      </c>
+      <c r="G16" s="25">
+        <v>120</v>
+      </c>
+      <c r="H16" s="22">
+        <v>52</v>
+      </c>
+      <c r="I16" s="41">
+        <f t="shared" si="1"/>
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="J16" s="19">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="K16" s="25">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="L16" s="81" t="s">
+        <v>106</v>
+      </c>
+      <c r="M16" s="73" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="24">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="10">
+        <v>664</v>
+      </c>
+      <c r="D17" s="25">
+        <v>57</v>
+      </c>
+      <c r="E17" s="78">
+        <v>1</v>
+      </c>
+      <c r="F17" s="10">
+        <v>7</v>
+      </c>
+      <c r="G17" s="25">
+        <v>134</v>
+      </c>
+      <c r="H17" s="10">
+        <v>54</v>
+      </c>
+      <c r="I17" s="41">
+        <f>H13/G17</f>
+        <v>0.38059701492537312</v>
+      </c>
+      <c r="J17" s="19">
+        <f>G17-H13</f>
+        <v>83</v>
+      </c>
+      <c r="K17" s="25">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="L17" s="84" t="s">
+        <v>106</v>
+      </c>
+      <c r="M17" s="73" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="24">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B18" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="62"/>
+      <c r="D18" s="24">
+        <v>40</v>
+      </c>
+      <c r="E18" s="78">
+        <v>3</v>
+      </c>
+      <c r="F18" s="33"/>
+      <c r="G18" s="24">
+        <v>120</v>
+      </c>
+      <c r="H18" s="33"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="80"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="83"/>
+      <c r="M18" s="73" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="24">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="10">
+        <v>151</v>
+      </c>
+      <c r="D19" s="24">
+        <v>46</v>
+      </c>
+      <c r="E19" s="78">
+        <v>2</v>
+      </c>
+      <c r="F19" s="10">
+        <v>5</v>
+      </c>
+      <c r="G19" s="24">
+        <v>120</v>
+      </c>
+      <c r="H19" s="22">
+        <v>44</v>
+      </c>
+      <c r="I19" s="41">
+        <f>H19/G19</f>
+        <v>0.36666666666666664</v>
+      </c>
+      <c r="J19" s="19">
+        <f>G19-H19</f>
+        <v>76</v>
+      </c>
+      <c r="K19" s="24">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="L19" s="85" t="s">
         <v>107</v>
       </c>
-      <c r="O6" s="107" t="s">
+      <c r="M19" s="73" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="24">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="10">
+        <v>333</v>
+      </c>
+      <c r="D20" s="25">
+        <v>46</v>
+      </c>
+      <c r="E20" s="22">
+        <v>0</v>
+      </c>
+      <c r="F20" s="22">
+        <v>1</v>
+      </c>
+      <c r="G20" s="25">
+        <v>120</v>
+      </c>
+      <c r="H20" s="22">
+        <v>48</v>
+      </c>
+      <c r="I20" s="41">
+        <f>H20/G20</f>
+        <v>0.4</v>
+      </c>
+      <c r="J20" s="19">
+        <f>G20-H20</f>
+        <v>72</v>
+      </c>
+      <c r="K20" s="25">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="L20" s="84" t="s">
+        <v>106</v>
+      </c>
+      <c r="M20" s="66"/>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="24">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="10">
+        <v>100</v>
+      </c>
+      <c r="D21" s="25">
+        <v>46</v>
+      </c>
+      <c r="E21" s="78">
+        <v>2</v>
+      </c>
+      <c r="F21" s="22">
+        <v>5</v>
+      </c>
+      <c r="G21" s="25">
+        <v>120</v>
+      </c>
+      <c r="H21" s="22">
+        <v>51</v>
+      </c>
+      <c r="I21" s="41">
+        <f>H21/G21</f>
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="J21" s="19">
+        <f>G21-H21</f>
+        <v>69</v>
+      </c>
+      <c r="K21" s="25">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="L21" s="88" t="s">
+        <v>107</v>
+      </c>
+      <c r="M21" s="73" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="24">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B22" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="61">
+        <v>17</v>
+      </c>
+      <c r="D22" s="90">
+        <v>50</v>
+      </c>
+      <c r="E22" s="77" t="s">
+        <v>110</v>
+      </c>
+      <c r="F22" s="53"/>
+      <c r="G22" s="54">
+        <v>120</v>
+      </c>
+      <c r="H22" s="33"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="91"/>
+      <c r="L22" s="92"/>
+      <c r="M22" s="87" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="24">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B23" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="61">
+        <v>21</v>
+      </c>
+      <c r="D23" s="90">
+        <v>50</v>
+      </c>
+      <c r="E23" s="77" t="s">
+        <v>110</v>
+      </c>
+      <c r="F23" s="53"/>
+      <c r="G23" s="54">
+        <v>120</v>
+      </c>
+      <c r="H23" s="33"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="93"/>
+      <c r="M23" s="87" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="24">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B24" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="61">
+        <v>16</v>
+      </c>
+      <c r="D24" s="90">
+        <v>50</v>
+      </c>
+      <c r="E24" s="77" t="s">
+        <v>110</v>
+      </c>
+      <c r="F24" s="53"/>
+      <c r="G24" s="54">
+        <v>120</v>
+      </c>
+      <c r="H24" s="33"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="93"/>
+      <c r="M24" s="87" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="24">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B25" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="61">
+        <v>71</v>
+      </c>
+      <c r="D25" s="90">
+        <v>50</v>
+      </c>
+      <c r="E25" s="77" t="s">
+        <v>110</v>
+      </c>
+      <c r="F25" s="53"/>
+      <c r="G25" s="54">
+        <v>120</v>
+      </c>
+      <c r="H25" s="33"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="59"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="93"/>
+      <c r="M25" s="87" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="24">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B26" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="61">
+        <v>47</v>
+      </c>
+      <c r="D26" s="90">
+        <v>50</v>
+      </c>
+      <c r="E26" s="77" t="s">
+        <v>110</v>
+      </c>
+      <c r="F26" s="53"/>
+      <c r="G26" s="54">
+        <v>120</v>
+      </c>
+      <c r="H26" s="33"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="59"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="93"/>
+      <c r="M26" s="87" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B27" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="61">
+        <v>27</v>
+      </c>
+      <c r="D27" s="90">
+        <v>50</v>
+      </c>
+      <c r="E27" s="77" t="s">
+        <v>110</v>
+      </c>
+      <c r="F27" s="53"/>
+      <c r="G27" s="54">
+        <v>120</v>
+      </c>
+      <c r="H27" s="33"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="59"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="93"/>
+      <c r="M27" s="87" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="24">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B28" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="61">
+        <v>16</v>
+      </c>
+      <c r="D28" s="90">
+        <v>50</v>
+      </c>
+      <c r="E28" s="77" t="s">
+        <v>112</v>
+      </c>
+      <c r="F28" s="53"/>
+      <c r="G28" s="54">
+        <v>120</v>
+      </c>
+      <c r="H28" s="33"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="59"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="93"/>
+      <c r="M28" s="87" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="24">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B29" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="61">
+        <v>67</v>
+      </c>
+      <c r="D29" s="90">
+        <v>50</v>
+      </c>
+      <c r="E29" s="77" t="s">
+        <v>110</v>
+      </c>
+      <c r="F29" s="53"/>
+      <c r="G29" s="54">
+        <v>120</v>
+      </c>
+      <c r="H29" s="33"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="59"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="93"/>
+      <c r="M29" s="87" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="24">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B30" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="61">
+        <v>20</v>
+      </c>
+      <c r="D30" s="90">
+        <v>50</v>
+      </c>
+      <c r="E30" s="77" t="s">
+        <v>110</v>
+      </c>
+      <c r="F30" s="53"/>
+      <c r="G30" s="54">
+        <v>120</v>
+      </c>
+      <c r="H30" s="33"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="59"/>
+      <c r="K30" s="56"/>
+      <c r="L30" s="93"/>
+      <c r="M30" s="87" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="24">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B31" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="61">
+        <v>28</v>
+      </c>
+      <c r="D31" s="90">
+        <v>50</v>
+      </c>
+      <c r="E31" s="77" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="32">
-        <f t="shared" ref="A7:A43" si="3">A6+1</f>
-        <v>3</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="30">
-        <v>5076</v>
-      </c>
-      <c r="D7" s="53">
-        <v>48</v>
-      </c>
-      <c r="E7" s="111">
-        <v>1</v>
-      </c>
-      <c r="F7" s="34"/>
-      <c r="G7" s="26">
-        <v>122</v>
-      </c>
-      <c r="H7" s="69"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="97">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L7" s="27">
-        <f t="shared" si="1"/>
-        <v>122</v>
-      </c>
-      <c r="M7" s="33">
-        <v>0.87</v>
-      </c>
-      <c r="N7" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="O7" s="107" t="s">
+      <c r="F31" s="53"/>
+      <c r="G31" s="54">
+        <v>120</v>
+      </c>
+      <c r="H31" s="33"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="59"/>
+      <c r="K31" s="56"/>
+      <c r="L31" s="93"/>
+      <c r="M31" s="87" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="24">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B32" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="61">
+        <v>24</v>
+      </c>
+      <c r="D32" s="90">
+        <v>50</v>
+      </c>
+      <c r="E32" s="77" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="32">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="30">
-        <v>1363</v>
-      </c>
-      <c r="D8" s="53">
-        <v>48</v>
-      </c>
-      <c r="E8" s="111">
-        <v>2</v>
-      </c>
-      <c r="F8" s="34"/>
-      <c r="G8" s="26">
-        <v>122</v>
-      </c>
-      <c r="H8" s="69"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="97">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L8" s="27">
-        <f t="shared" si="1"/>
-        <v>122</v>
-      </c>
-      <c r="M8" s="33">
-        <v>0.80700000000000005</v>
-      </c>
-      <c r="N8" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="O8" s="107" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="32">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="B9" s="64" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" s="86">
-        <v>57</v>
-      </c>
-      <c r="D9" s="74">
-        <v>37</v>
-      </c>
-      <c r="E9" s="112">
-        <v>2</v>
-      </c>
-      <c r="F9" s="50"/>
-      <c r="G9" s="74">
-        <v>120</v>
-      </c>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="97">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L9" s="27">
-        <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="M9" s="74"/>
-      <c r="N9" s="75"/>
-      <c r="O9" s="107" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="32">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C10" s="13">
-        <v>898</v>
-      </c>
-      <c r="D10" s="33">
-        <v>39</v>
-      </c>
-      <c r="E10" s="112">
-        <v>2</v>
-      </c>
-      <c r="F10" s="30"/>
-      <c r="G10" s="33">
-        <v>120</v>
-      </c>
-      <c r="H10" s="69"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="97">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L10" s="27">
-        <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="M10" s="33">
-        <v>0.78600000000000003</v>
-      </c>
-      <c r="N10" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="O10" s="107" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="32">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="C11" s="13">
-        <v>1718</v>
-      </c>
-      <c r="D11" s="33">
-        <v>39</v>
-      </c>
-      <c r="E11" s="30">
-        <v>0</v>
-      </c>
-      <c r="F11" s="30"/>
-      <c r="G11" s="33">
-        <v>120</v>
-      </c>
-      <c r="H11" s="69"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="97">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L11" s="27">
-        <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="M11" s="33">
-        <v>0.83299999999999996</v>
-      </c>
-      <c r="N11" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="O11" s="93"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="32">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="30">
-        <v>97</v>
-      </c>
-      <c r="D12" s="53">
-        <v>41</v>
-      </c>
-      <c r="E12" s="106">
-        <v>6</v>
-      </c>
-      <c r="F12" s="34"/>
-      <c r="G12" s="26">
-        <v>120</v>
-      </c>
-      <c r="H12" s="69"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="97">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L12" s="27">
-        <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="M12" s="33">
-        <v>0.84399999999999997</v>
-      </c>
-      <c r="N12" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="O12" s="107" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="32">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" s="13">
-        <v>765</v>
-      </c>
-      <c r="D13" s="33">
-        <v>46</v>
-      </c>
-      <c r="E13" s="30">
-        <v>0</v>
-      </c>
-      <c r="F13" s="30"/>
-      <c r="G13" s="33">
-        <v>120</v>
-      </c>
-      <c r="H13" s="69"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="97">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L13" s="27">
-        <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="M13" s="33">
-        <v>0.82799999999999996</v>
-      </c>
-      <c r="N13" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="O13" s="93"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="32">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14" s="13">
-        <v>2487</v>
-      </c>
-      <c r="D14" s="33">
-        <v>49</v>
-      </c>
-      <c r="E14" s="112">
-        <v>1</v>
-      </c>
-      <c r="F14" s="30"/>
-      <c r="G14" s="33">
-        <v>120</v>
-      </c>
-      <c r="H14" s="69"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="97">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="27">
-        <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="M14" s="33">
-        <v>0.83499999999999996</v>
-      </c>
-      <c r="N14" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="O14" s="93"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="32">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C15" s="13">
-        <v>6017</v>
-      </c>
-      <c r="D15" s="33">
-        <v>49</v>
-      </c>
-      <c r="E15" s="112">
-        <v>2</v>
-      </c>
-      <c r="F15" s="30"/>
-      <c r="G15" s="33">
-        <v>120</v>
-      </c>
-      <c r="H15" s="69"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="97">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L15" s="27">
-        <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="M15" s="33">
-        <v>0.85499999999999998</v>
-      </c>
-      <c r="N15" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="O15" s="93"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="32">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" s="13">
-        <v>2109</v>
-      </c>
-      <c r="D16" s="33">
-        <v>49</v>
-      </c>
-      <c r="E16" s="112">
-        <v>2</v>
-      </c>
-      <c r="F16" s="30"/>
-      <c r="G16" s="33">
-        <v>120</v>
-      </c>
-      <c r="H16" s="69"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="97">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L16" s="27">
-        <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="M16" s="33">
-        <v>0.84099999999999997</v>
-      </c>
-      <c r="N16" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="O16" s="93"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="32">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" s="13">
-        <v>664</v>
-      </c>
-      <c r="D17" s="33">
-        <v>57</v>
-      </c>
-      <c r="E17" s="112">
-        <v>1</v>
-      </c>
-      <c r="F17" s="30"/>
-      <c r="G17" s="33">
-        <v>134</v>
-      </c>
-      <c r="H17" s="69"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K17" s="97">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L17" s="27">
-        <f t="shared" si="1"/>
-        <v>134</v>
-      </c>
-      <c r="M17" s="33">
-        <v>0.83599999999999997</v>
-      </c>
-      <c r="N17" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="O17" s="93"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="32">
-        <f t="shared" si="3"/>
-        <v>14</v>
-      </c>
-      <c r="B18" s="64" t="s">
-        <v>84</v>
-      </c>
-      <c r="C18" s="87"/>
-      <c r="D18" s="74">
-        <v>40</v>
-      </c>
-      <c r="E18" s="112">
-        <v>3</v>
-      </c>
-      <c r="F18" s="50"/>
-      <c r="G18" s="74">
-        <v>120</v>
-      </c>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="97">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L18" s="27">
-        <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="M18" s="74"/>
-      <c r="N18" s="75"/>
-      <c r="O18" s="94"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="32">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" s="13">
-        <v>151</v>
-      </c>
-      <c r="D19" s="32">
-        <v>46</v>
-      </c>
-      <c r="E19" s="112">
-        <v>2</v>
-      </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="32">
-        <v>120</v>
-      </c>
-      <c r="H19" s="69"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="97">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L19" s="27">
-        <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="M19" s="32">
-        <v>0.83299999999999996</v>
-      </c>
-      <c r="N19" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="O19" s="107" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="32">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" s="13">
-        <v>333</v>
-      </c>
-      <c r="D20" s="33">
-        <v>46</v>
-      </c>
-      <c r="E20" s="30">
-        <v>0</v>
-      </c>
-      <c r="F20" s="30"/>
-      <c r="G20" s="33">
-        <v>120</v>
-      </c>
-      <c r="H20" s="69"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K20" s="97">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L20" s="27">
-        <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="M20" s="33">
-        <v>0.84699999999999998</v>
-      </c>
-      <c r="N20" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="O20" s="93"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="32">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C21" s="13">
-        <v>100</v>
-      </c>
-      <c r="D21" s="33">
-        <v>46</v>
-      </c>
-      <c r="E21" s="112">
-        <v>2</v>
-      </c>
-      <c r="F21" s="30"/>
-      <c r="G21" s="33">
-        <v>120</v>
-      </c>
-      <c r="H21" s="69"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="97">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L21" s="27">
-        <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="M21" s="33">
-        <v>0.81799999999999995</v>
-      </c>
-      <c r="N21" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="O21" s="93"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="32">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="B22" s="64" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" s="86">
-        <v>17</v>
-      </c>
-      <c r="D22" s="70">
-        <v>50</v>
-      </c>
-      <c r="E22" s="113" t="s">
-        <v>112</v>
-      </c>
-      <c r="F22" s="71"/>
-      <c r="G22" s="72">
-        <v>120</v>
-      </c>
-      <c r="H22" s="78"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="73"/>
-      <c r="K22" s="96"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="74"/>
-      <c r="N22" s="75"/>
-      <c r="O22" s="94"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="32">
-        <f t="shared" si="3"/>
-        <v>19</v>
-      </c>
-      <c r="B23" s="64" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" s="86">
-        <v>21</v>
-      </c>
-      <c r="D23" s="70">
-        <v>50</v>
-      </c>
-      <c r="E23" s="113" t="s">
-        <v>112</v>
-      </c>
-      <c r="F23" s="71"/>
-      <c r="G23" s="72">
-        <v>120</v>
-      </c>
-      <c r="H23" s="78"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="73"/>
-      <c r="K23" s="96"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="74"/>
-      <c r="N23" s="75"/>
-      <c r="O23" s="94"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="32">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="B24" s="64" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" s="86">
-        <v>16</v>
-      </c>
-      <c r="D24" s="70">
-        <v>50</v>
-      </c>
-      <c r="E24" s="113" t="s">
-        <v>112</v>
-      </c>
-      <c r="F24" s="71"/>
-      <c r="G24" s="72">
-        <v>120</v>
-      </c>
-      <c r="H24" s="78"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="73"/>
-      <c r="K24" s="96"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="74"/>
-      <c r="N24" s="75"/>
-      <c r="O24" s="94"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="32">
-        <f t="shared" si="3"/>
-        <v>21</v>
-      </c>
-      <c r="B25" s="64" t="s">
-        <v>69</v>
-      </c>
-      <c r="C25" s="86">
-        <v>71</v>
-      </c>
-      <c r="D25" s="70">
-        <v>50</v>
-      </c>
-      <c r="E25" s="113" t="s">
-        <v>112</v>
-      </c>
-      <c r="F25" s="71"/>
-      <c r="G25" s="72">
-        <v>120</v>
-      </c>
-      <c r="H25" s="78"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="96"/>
-      <c r="L25" s="49"/>
-      <c r="M25" s="74"/>
-      <c r="N25" s="75"/>
-      <c r="O25" s="94"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="32">
-        <f t="shared" si="3"/>
-        <v>22</v>
-      </c>
-      <c r="B26" s="64" t="s">
-        <v>70</v>
-      </c>
-      <c r="C26" s="86">
-        <v>47</v>
-      </c>
-      <c r="D26" s="70">
-        <v>50</v>
-      </c>
-      <c r="E26" s="113" t="s">
-        <v>112</v>
-      </c>
-      <c r="F26" s="71"/>
-      <c r="G26" s="72">
-        <v>120</v>
-      </c>
-      <c r="H26" s="78"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="73"/>
-      <c r="K26" s="96"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="74"/>
-      <c r="N26" s="75"/>
-      <c r="O26" s="94"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="32">
-        <f t="shared" si="3"/>
-        <v>23</v>
-      </c>
-      <c r="B27" s="64" t="s">
-        <v>71</v>
-      </c>
-      <c r="C27" s="86">
-        <v>27</v>
-      </c>
-      <c r="D27" s="70">
-        <v>50</v>
-      </c>
-      <c r="E27" s="113" t="s">
-        <v>112</v>
-      </c>
-      <c r="F27" s="71"/>
-      <c r="G27" s="72">
-        <v>120</v>
-      </c>
-      <c r="H27" s="78"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="73"/>
-      <c r="K27" s="96"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="74"/>
-      <c r="N27" s="75"/>
-      <c r="O27" s="94"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="32">
-        <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="B28" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="86">
-        <v>16</v>
-      </c>
-      <c r="D28" s="70">
-        <v>50</v>
-      </c>
-      <c r="E28" s="113" t="s">
-        <v>112</v>
-      </c>
-      <c r="F28" s="71"/>
-      <c r="G28" s="72">
-        <v>120</v>
-      </c>
-      <c r="H28" s="78"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="73"/>
-      <c r="K28" s="96"/>
-      <c r="L28" s="49"/>
-      <c r="M28" s="74"/>
-      <c r="N28" s="75"/>
-      <c r="O28" s="94"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="32">
-        <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="B29" s="64" t="s">
-        <v>73</v>
-      </c>
-      <c r="C29" s="86">
-        <v>67</v>
-      </c>
-      <c r="D29" s="70">
-        <v>50</v>
-      </c>
-      <c r="E29" s="113" t="s">
-        <v>112</v>
-      </c>
-      <c r="F29" s="71"/>
-      <c r="G29" s="72">
-        <v>120</v>
-      </c>
-      <c r="H29" s="78"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="73"/>
-      <c r="K29" s="96"/>
-      <c r="L29" s="49"/>
-      <c r="M29" s="74"/>
-      <c r="N29" s="75"/>
-      <c r="O29" s="94"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="32">
-        <f t="shared" si="3"/>
-        <v>26</v>
-      </c>
-      <c r="B30" s="64" t="s">
-        <v>74</v>
-      </c>
-      <c r="C30" s="86">
-        <v>20</v>
-      </c>
-      <c r="D30" s="70">
-        <v>50</v>
-      </c>
-      <c r="E30" s="113" t="s">
-        <v>112</v>
-      </c>
-      <c r="F30" s="71"/>
-      <c r="G30" s="72">
-        <v>120</v>
-      </c>
-      <c r="H30" s="78"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="73"/>
-      <c r="K30" s="96"/>
-      <c r="L30" s="49"/>
-      <c r="M30" s="74"/>
-      <c r="N30" s="75"/>
-      <c r="O30" s="94"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="32">
-        <f t="shared" si="3"/>
-        <v>27</v>
-      </c>
-      <c r="B31" s="64" t="s">
-        <v>75</v>
-      </c>
-      <c r="C31" s="86">
-        <v>28</v>
-      </c>
-      <c r="D31" s="70">
-        <v>50</v>
-      </c>
-      <c r="E31" s="113" t="s">
-        <v>113</v>
-      </c>
-      <c r="F31" s="71"/>
-      <c r="G31" s="72">
-        <v>120</v>
-      </c>
-      <c r="H31" s="78"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="73"/>
-      <c r="K31" s="96"/>
-      <c r="L31" s="49"/>
-      <c r="M31" s="74"/>
-      <c r="N31" s="75"/>
-      <c r="O31" s="94"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="32">
-        <f t="shared" si="3"/>
-        <v>28</v>
-      </c>
-      <c r="B32" s="64" t="s">
-        <v>76</v>
-      </c>
-      <c r="C32" s="86">
-        <v>24</v>
-      </c>
-      <c r="D32" s="70">
-        <v>50</v>
-      </c>
-      <c r="E32" s="113" t="s">
-        <v>112</v>
-      </c>
-      <c r="F32" s="71"/>
-      <c r="G32" s="72">
-        <v>120</v>
-      </c>
-      <c r="H32" s="78"/>
-      <c r="I32" s="50"/>
-      <c r="J32" s="73"/>
-      <c r="K32" s="96"/>
-      <c r="L32" s="49"/>
-      <c r="M32" s="74"/>
-      <c r="N32" s="75"/>
-      <c r="O32" s="94"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="32">
+      <c r="F32" s="53"/>
+      <c r="G32" s="54">
+        <v>120</v>
+      </c>
+      <c r="H32" s="33"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="59"/>
+      <c r="K32" s="94"/>
+      <c r="L32" s="95"/>
+      <c r="M32" s="87" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="24">
         <f>A39+1</f>
         <v>32</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="30">
+      <c r="C33" s="22">
         <v>450</v>
       </c>
-      <c r="D33" s="53">
+      <c r="D33" s="36">
         <v>50</v>
       </c>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34">
-        <v>5</v>
-      </c>
-      <c r="G33" s="26">
-        <v>120</v>
-      </c>
-      <c r="H33" s="69">
-        <v>125</v>
-      </c>
-      <c r="I33" s="9">
-        <v>48</v>
-      </c>
-      <c r="J33" s="58">
-        <f>I33/G33</f>
+      <c r="E33" s="77">
+        <v>1</v>
+      </c>
+      <c r="F33" s="26">
+        <v>2</v>
+      </c>
+      <c r="G33" s="18">
+        <v>120</v>
+      </c>
+      <c r="H33" s="89">
+        <v>50</v>
+      </c>
+      <c r="I33" s="41">
+        <f>H39/G33</f>
         <v>0.4</v>
       </c>
-      <c r="K33" s="97">
-        <f t="shared" ref="K33:K42" si="4">H33-I33</f>
-        <v>77</v>
-      </c>
-      <c r="L33" s="27">
-        <f t="shared" si="1"/>
+      <c r="J33" s="19">
+        <f>G33-H39</f>
         <v>72</v>
       </c>
-      <c r="M33" s="33">
+      <c r="K33" s="25">
         <v>0.84699999999999998</v>
       </c>
-      <c r="N33" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="O33" s="93"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="32">
+      <c r="L33" s="81" t="s">
+        <v>106</v>
+      </c>
+      <c r="M33" s="73" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="24">
         <f>A33+1</f>
         <v>33</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="30">
+      <c r="C34" s="22">
         <v>1308</v>
       </c>
-      <c r="D34" s="53">
+      <c r="D34" s="36">
         <v>50</v>
       </c>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="26">
-        <v>120</v>
-      </c>
-      <c r="H34" s="69"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="58">
-        <f t="shared" ref="J34:J43" si="5">I34/G34</f>
-        <v>0</v>
-      </c>
-      <c r="K34" s="97">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L34" s="27">
-        <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="M34" s="33">
+      <c r="E34" s="72">
+        <v>2</v>
+      </c>
+      <c r="F34" s="26">
+        <v>1</v>
+      </c>
+      <c r="G34" s="18">
+        <v>120</v>
+      </c>
+      <c r="H34" s="22">
+        <v>47</v>
+      </c>
+      <c r="I34" s="41">
+        <f t="shared" ref="I34:I43" si="3">H34/G34</f>
+        <v>0.39166666666666666</v>
+      </c>
+      <c r="J34" s="19">
+        <f t="shared" ref="J34:J40" si="4">G34-H34</f>
+        <v>73</v>
+      </c>
+      <c r="K34" s="25">
         <v>0.81100000000000005</v>
       </c>
-      <c r="N34" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="O34" s="93"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="32">
+      <c r="L34" s="84" t="s">
+        <v>106</v>
+      </c>
+      <c r="M34" s="73" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="24">
         <f>A32+1</f>
         <v>29</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C35" s="30">
+      <c r="C35" s="22">
         <v>336</v>
       </c>
-      <c r="D35" s="53">
+      <c r="D35" s="36">
         <v>52</v>
       </c>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="26">
+      <c r="E35" s="72">
+        <v>2</v>
+      </c>
+      <c r="F35" s="26">
+        <v>4</v>
+      </c>
+      <c r="G35" s="18">
         <v>124</v>
       </c>
-      <c r="H35" s="69"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="58">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K35" s="97">
+      <c r="H35" s="22">
+        <v>55</v>
+      </c>
+      <c r="I35" s="41">
+        <f t="shared" si="3"/>
+        <v>0.44354838709677419</v>
+      </c>
+      <c r="J35" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L35" s="27">
-        <f t="shared" si="1"/>
-        <v>124</v>
-      </c>
-      <c r="M35" s="32">
+        <v>69</v>
+      </c>
+      <c r="K35" s="24">
         <v>0.87</v>
       </c>
-      <c r="N35" s="15" t="s">
+      <c r="L35" s="86" t="s">
         <v>99</v>
       </c>
-      <c r="O35" s="93"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="32">
+      <c r="M35" s="73" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="24">
         <f>A34+1</f>
         <v>34</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C36" s="30">
+      <c r="C36" s="22">
         <v>350</v>
       </c>
-      <c r="D36" s="53">
+      <c r="D36" s="36">
         <v>53</v>
       </c>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="26">
+      <c r="E36" s="72">
+        <v>13</v>
+      </c>
+      <c r="F36" s="26">
+        <v>3</v>
+      </c>
+      <c r="G36" s="18">
         <v>126</v>
       </c>
-      <c r="H36" s="69"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="58">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K36" s="97">
+      <c r="H36" s="22">
+        <v>43</v>
+      </c>
+      <c r="I36" s="41">
+        <f t="shared" si="3"/>
+        <v>0.34126984126984128</v>
+      </c>
+      <c r="J36" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L36" s="27">
-        <f t="shared" si="1"/>
-        <v>126</v>
-      </c>
-      <c r="M36" s="33">
+        <v>83</v>
+      </c>
+      <c r="K36" s="25">
         <v>0.83</v>
       </c>
-      <c r="N36" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="O36" s="93"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="32">
+      <c r="L36" s="84" t="s">
+        <v>106</v>
+      </c>
+      <c r="M36" s="73" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="24">
         <f>A36+1</f>
         <v>35</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C37" s="30">
+      <c r="C37" s="22">
         <v>1110</v>
       </c>
-      <c r="D37" s="53">
+      <c r="D37" s="36">
         <v>51</v>
       </c>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="26">
+      <c r="E37" s="72">
+        <v>1</v>
+      </c>
+      <c r="F37" s="26">
+        <v>2</v>
+      </c>
+      <c r="G37" s="18">
         <v>122</v>
       </c>
-      <c r="H37" s="69"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="58">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K37" s="97">
+      <c r="H37" s="22">
+        <v>58</v>
+      </c>
+      <c r="I37" s="41">
+        <f t="shared" si="3"/>
+        <v>0.47540983606557374</v>
+      </c>
+      <c r="J37" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L37" s="27">
-        <f t="shared" si="1"/>
-        <v>122</v>
-      </c>
-      <c r="M37" s="33">
+        <v>64</v>
+      </c>
+      <c r="K37" s="25">
         <v>0.84799999999999998</v>
       </c>
-      <c r="N37" s="15" t="s">
+      <c r="L37" s="86" t="s">
         <v>99</v>
       </c>
-      <c r="O37" s="93"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="32">
+      <c r="M37" s="73" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="24">
         <f>A37+1</f>
         <v>36</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C38" s="30">
+      <c r="C38" s="22">
         <v>260</v>
       </c>
-      <c r="D38" s="53">
+      <c r="D38" s="36">
         <v>55</v>
       </c>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="26">
+      <c r="E38" s="72">
+        <v>1</v>
+      </c>
+      <c r="F38" s="26">
+        <v>5</v>
+      </c>
+      <c r="G38" s="18">
         <v>130</v>
       </c>
-      <c r="H38" s="69"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="58">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K38" s="97">
+      <c r="H38" s="22">
+        <v>47</v>
+      </c>
+      <c r="I38" s="41">
+        <f t="shared" si="3"/>
+        <v>0.36153846153846153</v>
+      </c>
+      <c r="J38" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L38" s="27">
-        <f t="shared" si="1"/>
-        <v>130</v>
-      </c>
-      <c r="M38" s="33">
+        <v>83</v>
+      </c>
+      <c r="K38" s="25">
         <v>0.84299999999999997</v>
       </c>
-      <c r="N38" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="O38" s="93"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="32">
+      <c r="L38" s="84" t="s">
+        <v>106</v>
+      </c>
+      <c r="M38" s="73" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="24">
         <f>A40+1</f>
         <v>31</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C39" s="30">
+      <c r="C39" s="22">
         <v>276</v>
       </c>
-      <c r="D39" s="53">
+      <c r="D39" s="36">
         <v>49</v>
       </c>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="26">
+      <c r="E39" s="72">
+        <v>8</v>
+      </c>
+      <c r="F39" s="26">
+        <v>5</v>
+      </c>
+      <c r="G39" s="18">
         <v>125</v>
       </c>
-      <c r="H39" s="69"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="58">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K39" s="97">
+      <c r="H39" s="8">
+        <v>48</v>
+      </c>
+      <c r="I39" s="41">
+        <f t="shared" si="3"/>
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="J39" s="19">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L39" s="27">
-        <f t="shared" si="1"/>
-        <v>125</v>
-      </c>
-      <c r="M39" s="33">
+        <v>77</v>
+      </c>
+      <c r="K39" s="25">
         <v>0.80700000000000005</v>
       </c>
-      <c r="N39" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="O39" s="93"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="32">
+      <c r="L39" s="84" t="s">
+        <v>106</v>
+      </c>
+      <c r="M39" s="73" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="24">
         <f>A35+1</f>
         <v>30</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="30">
+      <c r="C40" s="22">
         <v>246</v>
       </c>
-      <c r="D40" s="53">
+      <c r="D40" s="36">
         <v>48</v>
       </c>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34">
+      <c r="E40" s="72">
+        <v>1</v>
+      </c>
+      <c r="F40" s="26">
         <v>2</v>
       </c>
-      <c r="G40" s="26">
-        <v>120</v>
-      </c>
-      <c r="H40" s="69">
-        <v>130</v>
-      </c>
-      <c r="I40" s="9">
+      <c r="G40" s="18">
+        <v>120</v>
+      </c>
+      <c r="H40" s="8">
         <v>53</v>
       </c>
-      <c r="J40" s="58">
-        <f t="shared" si="5"/>
+      <c r="I40" s="41">
+        <f t="shared" si="3"/>
         <v>0.44166666666666665</v>
       </c>
-      <c r="K40" s="97">
+      <c r="J40" s="19">
         <f t="shared" si="4"/>
-        <v>77</v>
-      </c>
-      <c r="L40" s="27">
-        <f t="shared" si="1"/>
         <v>67</v>
       </c>
-      <c r="M40" s="32">
+      <c r="K40" s="24">
         <v>0.84199999999999997</v>
       </c>
-      <c r="N40" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="O40" s="93"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="32">
+      <c r="L40" s="84" t="s">
+        <v>106</v>
+      </c>
+      <c r="M40" s="73" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="24">
         <f>A38+1</f>
         <v>37</v>
       </c>
-      <c r="B41" s="77" t="s">
+      <c r="B41" s="58" t="s">
         <v>89</v>
       </c>
-      <c r="C41" s="13">
+      <c r="C41" s="10">
         <v>21631</v>
       </c>
-      <c r="D41" s="53">
+      <c r="D41" s="36">
         <v>51</v>
       </c>
-      <c r="E41" s="106">
+      <c r="E41" s="72">
         <v>7</v>
       </c>
-      <c r="F41" s="34"/>
-      <c r="G41" s="26">
+      <c r="F41" s="26">
+        <v>3</v>
+      </c>
+      <c r="G41" s="18">
         <v>122</v>
       </c>
-      <c r="H41" s="69"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="58">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K41" s="97">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L41" s="27">
-        <f t="shared" si="1"/>
+      <c r="H41" s="22">
+        <f>G41-J41</f>
+        <v>39</v>
+      </c>
+      <c r="I41" s="41">
+        <f t="shared" si="3"/>
+        <v>0.31967213114754101</v>
+      </c>
+      <c r="J41" s="19">
+        <v>83</v>
+      </c>
+      <c r="K41" s="24">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="L41" s="81" t="s">
+        <v>106</v>
+      </c>
+      <c r="M41" s="73" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="24">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="10">
+        <v>12980</v>
+      </c>
+      <c r="D42" s="36">
+        <v>45</v>
+      </c>
+      <c r="E42" s="72">
+        <v>1</v>
+      </c>
+      <c r="F42" s="26">
+        <v>5</v>
+      </c>
+      <c r="G42" s="18">
         <v>122</v>
       </c>
-      <c r="M41" s="32">
-        <v>0.82899999999999996</v>
-      </c>
-      <c r="N41" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="O41" s="93"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="32">
+      <c r="H42" s="22">
+        <v>47</v>
+      </c>
+      <c r="I42" s="41">
         <f t="shared" si="3"/>
-        <v>38</v>
-      </c>
-      <c r="B42" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="C42" s="13">
-        <v>12980</v>
-      </c>
-      <c r="D42" s="53">
+        <v>0.38524590163934425</v>
+      </c>
+      <c r="J42" s="19">
+        <f>G42-H42</f>
+        <v>75</v>
+      </c>
+      <c r="K42" s="24">
+        <v>0.84</v>
+      </c>
+      <c r="L42" s="86" t="s">
+        <v>99</v>
+      </c>
+      <c r="M42" s="73" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="46">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" s="28">
+        <v>4336</v>
+      </c>
+      <c r="D43" s="37">
+        <v>52</v>
+      </c>
+      <c r="E43" s="74">
+        <v>2</v>
+      </c>
+      <c r="F43" s="39">
+        <v>5</v>
+      </c>
+      <c r="G43" s="20">
+        <v>124</v>
+      </c>
+      <c r="H43" s="27">
         <v>45</v>
       </c>
-      <c r="E42" s="106">
-        <v>1</v>
-      </c>
-      <c r="F42" s="34"/>
-      <c r="G42" s="26">
-        <v>122</v>
-      </c>
-      <c r="H42" s="69"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="58">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K42" s="97">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L42" s="27">
-        <f t="shared" si="1"/>
-        <v>122</v>
-      </c>
-      <c r="M42" s="32">
-        <v>0.84</v>
-      </c>
-      <c r="N42" s="15" t="s">
+      <c r="I43" s="42">
+        <f t="shared" si="3"/>
+        <v>0.36290322580645162</v>
+      </c>
+      <c r="J43" s="21">
+        <f>G43-H43</f>
+        <v>79</v>
+      </c>
+      <c r="K43" s="46">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="L43" s="86" t="s">
         <v>99</v>
       </c>
-      <c r="O42" s="93"/>
-    </row>
-    <row r="43" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="63">
-        <f t="shared" si="3"/>
-        <v>39</v>
-      </c>
-      <c r="B43" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="C43" s="36">
-        <v>4336</v>
-      </c>
-      <c r="D43" s="54">
-        <v>52</v>
-      </c>
-      <c r="E43" s="108">
-        <v>2</v>
-      </c>
-      <c r="F43" s="56"/>
-      <c r="G43" s="28">
-        <v>124</v>
-      </c>
-      <c r="H43" s="98"/>
-      <c r="I43" s="18"/>
-      <c r="J43" s="58">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K43" s="97">
-        <f t="shared" ref="K41:K43" si="6">H43-I43</f>
-        <v>0</v>
-      </c>
-      <c r="L43" s="27">
-        <f t="shared" ref="L34:L43" si="7">G43-I43</f>
-        <v>124</v>
-      </c>
-      <c r="M43" s="63">
-        <v>0.84199999999999997</v>
-      </c>
-      <c r="N43" s="81" t="s">
-        <v>99</v>
-      </c>
-      <c r="O43" s="95"/>
+      <c r="M43" s="73" t="s">
+        <v>109</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A1:M1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="G3:J3"/>
     <mergeCell ref="D3:F3"/>
-    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="K3:L3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Diagnostico_EB/Propuestas_Formatos/DiagnosticoEB_Promoción-Ingreso.xlsx
+++ b/Diagnostico_EB/Propuestas_Formatos/DiagnosticoEB_Promoción-Ingreso.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14040" windowHeight="9720" activeTab="1"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Promoción" sheetId="4" r:id="rId2"/>
     <sheet name="Notas" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="113">
   <si>
     <t>Figura</t>
   </si>
@@ -393,7 +393,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -897,12 +897,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -983,24 +977,15 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1060,6 +1045,21 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1443,7 +1443,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1478,72 +1478,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="91" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="98"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="93"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="94" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="101"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="96"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="105" t="s">
+      <c r="A3" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="107" t="s">
+      <c r="B3" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="109" t="s">
+      <c r="C3" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="102" t="s">
+      <c r="D3" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="103"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="111" t="s">
+      <c r="E3" s="98"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="102" t="s">
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="104"/>
-      <c r="M3" s="64" t="s">
+      <c r="L3" s="99"/>
+      <c r="M3" s="62" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="106"/>
-      <c r="B4" s="108"/>
-      <c r="C4" s="110"/>
+      <c r="A4" s="101"/>
+      <c r="B4" s="103"/>
+      <c r="C4" s="105"/>
       <c r="D4" s="34" t="s">
         <v>96</v>
       </c>
@@ -1588,7 +1588,7 @@
       <c r="D5" s="35">
         <v>44</v>
       </c>
-      <c r="E5" s="75">
+      <c r="E5" s="73">
         <v>5</v>
       </c>
       <c r="F5" s="17">
@@ -1611,10 +1611,10 @@
       <c r="K5" s="45">
         <v>0.85</v>
       </c>
-      <c r="L5" s="67" t="s">
+      <c r="L5" s="65" t="s">
         <v>106</v>
       </c>
-      <c r="M5" s="73" t="s">
+      <c r="M5" s="71" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1655,10 +1655,10 @@
       <c r="K6" s="24">
         <v>0.88</v>
       </c>
-      <c r="L6" s="68" t="s">
+      <c r="L6" s="66" t="s">
         <v>99</v>
       </c>
-      <c r="M6" s="65"/>
+      <c r="M6" s="63"/>
     </row>
     <row r="7" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="30">
@@ -1674,7 +1674,7 @@
       <c r="D7" s="36">
         <v>49</v>
       </c>
-      <c r="E7" s="72">
+      <c r="E7" s="70">
         <v>6</v>
       </c>
       <c r="F7" s="19">
@@ -1697,10 +1697,10 @@
       <c r="K7" s="24">
         <v>0.85</v>
       </c>
-      <c r="L7" s="67" t="s">
+      <c r="L7" s="65" t="s">
         <v>106</v>
       </c>
-      <c r="M7" s="73" t="s">
+      <c r="M7" s="71" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1741,10 +1741,10 @@
       <c r="K8" s="24">
         <v>0.87</v>
       </c>
-      <c r="L8" s="68" t="s">
+      <c r="L8" s="66" t="s">
         <v>99</v>
       </c>
-      <c r="M8" s="65"/>
+      <c r="M8" s="63"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30">
@@ -1760,7 +1760,7 @@
       <c r="D9" s="36">
         <v>49</v>
       </c>
-      <c r="E9" s="72">
+      <c r="E9" s="70">
         <v>2</v>
       </c>
       <c r="F9" s="19">
@@ -1783,10 +1783,10 @@
       <c r="K9" s="24">
         <v>0.88</v>
       </c>
-      <c r="L9" s="69" t="s">
+      <c r="L9" s="67" t="s">
         <v>105</v>
       </c>
-      <c r="M9" s="73" t="s">
+      <c r="M9" s="71" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1827,10 +1827,10 @@
       <c r="K10" s="25">
         <v>0.84</v>
       </c>
-      <c r="L10" s="67" t="s">
+      <c r="L10" s="65" t="s">
         <v>106</v>
       </c>
-      <c r="M10" s="65"/>
+      <c r="M10" s="63"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="30">
@@ -1869,10 +1869,10 @@
       <c r="K11" s="25">
         <v>0.86</v>
       </c>
-      <c r="L11" s="69" t="s">
+      <c r="L11" s="67" t="s">
         <v>105</v>
       </c>
-      <c r="M11" s="65"/>
+      <c r="M11" s="63"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="30">
@@ -1911,10 +1911,10 @@
       <c r="K12" s="25">
         <v>0.91</v>
       </c>
-      <c r="L12" s="69" t="s">
+      <c r="L12" s="67" t="s">
         <v>105</v>
       </c>
-      <c r="M12" s="65"/>
+      <c r="M12" s="63"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="30">
@@ -1953,10 +1953,10 @@
       <c r="K13" s="25">
         <v>0.89</v>
       </c>
-      <c r="L13" s="69" t="s">
+      <c r="L13" s="67" t="s">
         <v>105</v>
       </c>
-      <c r="M13" s="65"/>
+      <c r="M13" s="63"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="30">
@@ -1972,7 +1972,7 @@
       <c r="D14" s="36">
         <v>50</v>
       </c>
-      <c r="E14" s="72">
+      <c r="E14" s="70">
         <v>2</v>
       </c>
       <c r="F14" s="19">
@@ -1995,10 +1995,10 @@
       <c r="K14" s="25">
         <v>0.88</v>
       </c>
-      <c r="L14" s="69" t="s">
+      <c r="L14" s="67" t="s">
         <v>105</v>
       </c>
-      <c r="M14" s="73" t="s">
+      <c r="M14" s="71" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2039,10 +2039,10 @@
       <c r="K15" s="25">
         <v>0.87</v>
       </c>
-      <c r="L15" s="68" t="s">
+      <c r="L15" s="66" t="s">
         <v>99</v>
       </c>
-      <c r="M15" s="65"/>
+      <c r="M15" s="63"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="30">
@@ -2081,10 +2081,10 @@
       <c r="K16" s="25">
         <v>0.86</v>
       </c>
-      <c r="L16" s="68" t="s">
+      <c r="L16" s="66" t="s">
         <v>99</v>
       </c>
-      <c r="M16" s="65"/>
+      <c r="M16" s="63"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="30">
@@ -2123,10 +2123,10 @@
       <c r="K17" s="25">
         <v>0.88</v>
       </c>
-      <c r="L17" s="69" t="s">
+      <c r="L17" s="67" t="s">
         <v>105</v>
       </c>
-      <c r="M17" s="65"/>
+      <c r="M17" s="63"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="30">
@@ -2165,10 +2165,10 @@
       <c r="K18" s="25">
         <v>0.87</v>
       </c>
-      <c r="L18" s="68" t="s">
+      <c r="L18" s="66" t="s">
         <v>99</v>
       </c>
-      <c r="M18" s="65"/>
+      <c r="M18" s="63"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="30">
@@ -2184,7 +2184,7 @@
       <c r="D19" s="36">
         <v>49</v>
       </c>
-      <c r="E19" s="72">
+      <c r="E19" s="70">
         <v>3</v>
       </c>
       <c r="F19" s="19">
@@ -2207,10 +2207,10 @@
       <c r="K19" s="25">
         <v>0.83</v>
       </c>
-      <c r="L19" s="68" t="s">
+      <c r="L19" s="66" t="s">
         <v>99</v>
       </c>
-      <c r="M19" s="73" t="s">
+      <c r="M19" s="71" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2228,7 +2228,7 @@
       <c r="D20" s="36">
         <v>50</v>
       </c>
-      <c r="E20" s="72">
+      <c r="E20" s="70">
         <v>4</v>
       </c>
       <c r="F20" s="19">
@@ -2251,10 +2251,10 @@
       <c r="K20" s="25">
         <v>0.88</v>
       </c>
-      <c r="L20" s="69" t="s">
+      <c r="L20" s="67" t="s">
         <v>105</v>
       </c>
-      <c r="M20" s="73" t="s">
+      <c r="M20" s="71" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2272,7 +2272,7 @@
       <c r="D21" s="36">
         <v>50</v>
       </c>
-      <c r="E21" s="72">
+      <c r="E21" s="70">
         <v>1</v>
       </c>
       <c r="F21" s="19">
@@ -2295,10 +2295,10 @@
       <c r="K21" s="25">
         <v>0.87</v>
       </c>
-      <c r="L21" s="67" t="s">
+      <c r="L21" s="65" t="s">
         <v>106</v>
       </c>
-      <c r="M21" s="73" t="s">
+      <c r="M21" s="71" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2316,7 +2316,7 @@
       <c r="D22" s="36">
         <v>50</v>
       </c>
-      <c r="E22" s="72">
+      <c r="E22" s="70">
         <v>1</v>
       </c>
       <c r="F22" s="19">
@@ -2339,10 +2339,10 @@
       <c r="K22" s="25">
         <v>0.86</v>
       </c>
-      <c r="L22" s="70" t="s">
+      <c r="L22" s="68" t="s">
         <v>107</v>
       </c>
-      <c r="M22" s="73" t="s">
+      <c r="M22" s="71" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2351,16 +2351,16 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B23" s="63" t="s">
+      <c r="B23" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="61">
+      <c r="C23" s="59">
         <v>62</v>
       </c>
       <c r="D23" s="52">
         <v>50</v>
       </c>
-      <c r="E23" s="72">
+      <c r="E23" s="70">
         <v>2</v>
       </c>
       <c r="F23" s="32">
@@ -2383,10 +2383,10 @@
       <c r="K23" s="56">
         <v>0.86</v>
       </c>
-      <c r="L23" s="71" t="s">
+      <c r="L23" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="M23" s="73" t="s">
+      <c r="M23" s="71" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2404,7 +2404,7 @@
       <c r="D24" s="36">
         <v>50</v>
       </c>
-      <c r="E24" s="72">
+      <c r="E24" s="70">
         <v>4</v>
       </c>
       <c r="F24" s="19">
@@ -2427,10 +2427,10 @@
       <c r="K24" s="25">
         <v>0.82</v>
       </c>
-      <c r="L24" s="67" t="s">
+      <c r="L24" s="65" t="s">
         <v>106</v>
       </c>
-      <c r="M24" s="73" t="s">
+      <c r="M24" s="71" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2471,10 +2471,10 @@
       <c r="K25" s="25">
         <v>0.85</v>
       </c>
-      <c r="L25" s="69" t="s">
+      <c r="L25" s="67" t="s">
         <v>105</v>
       </c>
-      <c r="M25" s="65"/>
+      <c r="M25" s="63"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="30">
@@ -2490,7 +2490,7 @@
       <c r="D26" s="36">
         <v>48</v>
       </c>
-      <c r="E26" s="72">
+      <c r="E26" s="70">
         <v>4</v>
       </c>
       <c r="F26" s="19">
@@ -2513,10 +2513,10 @@
       <c r="K26" s="25">
         <v>0.82</v>
       </c>
-      <c r="L26" s="67" t="s">
+      <c r="L26" s="65" t="s">
         <v>106</v>
       </c>
-      <c r="M26" s="73" t="s">
+      <c r="M26" s="71" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2534,7 +2534,7 @@
       <c r="D27" s="36">
         <v>50</v>
       </c>
-      <c r="E27" s="72">
+      <c r="E27" s="70">
         <v>2</v>
       </c>
       <c r="F27" s="19">
@@ -2557,10 +2557,10 @@
       <c r="K27" s="25">
         <v>0.8</v>
       </c>
-      <c r="L27" s="70" t="s">
+      <c r="L27" s="68" t="s">
         <v>107</v>
       </c>
-      <c r="M27" s="73" t="s">
+      <c r="M27" s="71" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2569,16 +2569,16 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B28" s="63" t="s">
+      <c r="B28" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="61">
+      <c r="C28" s="59">
         <v>42</v>
       </c>
       <c r="D28" s="52">
         <v>50</v>
       </c>
-      <c r="E28" s="72">
+      <c r="E28" s="70">
         <v>1</v>
       </c>
       <c r="F28" s="32">
@@ -2601,10 +2601,10 @@
       <c r="K28" s="56">
         <v>0.85</v>
       </c>
-      <c r="L28" s="71" t="s">
+      <c r="L28" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="M28" s="73" t="s">
+      <c r="M28" s="71" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2622,7 +2622,7 @@
       <c r="D29" s="36">
         <v>47</v>
       </c>
-      <c r="E29" s="72">
+      <c r="E29" s="70">
         <v>5</v>
       </c>
       <c r="F29" s="19">
@@ -2645,10 +2645,10 @@
       <c r="K29" s="25">
         <v>0.8</v>
       </c>
-      <c r="L29" s="70" t="s">
+      <c r="L29" s="68" t="s">
         <v>107</v>
       </c>
-      <c r="M29" s="73" t="s">
+      <c r="M29" s="71" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2666,7 +2666,7 @@
       <c r="D30" s="36">
         <v>45</v>
       </c>
-      <c r="E30" s="72">
+      <c r="E30" s="70">
         <v>3</v>
       </c>
       <c r="F30" s="19">
@@ -2689,10 +2689,10 @@
       <c r="K30" s="25">
         <v>0.9</v>
       </c>
-      <c r="L30" s="68" t="s">
+      <c r="L30" s="66" t="s">
         <v>99</v>
       </c>
-      <c r="M30" s="73" t="s">
+      <c r="M30" s="71" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2710,7 +2710,7 @@
       <c r="D31" s="37">
         <v>50</v>
       </c>
-      <c r="E31" s="74">
+      <c r="E31" s="72">
         <v>5</v>
       </c>
       <c r="F31" s="21">
@@ -2733,10 +2733,10 @@
       <c r="K31" s="29">
         <v>0.81</v>
       </c>
-      <c r="L31" s="70" t="s">
+      <c r="L31" s="68" t="s">
         <v>107</v>
       </c>
-      <c r="M31" s="73" t="s">
+      <c r="M31" s="71" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2759,12 +2759,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P43"/>
+  <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2774,90 +2772,93 @@
     <col min="3" max="3" width="13.85546875" customWidth="1"/>
     <col min="4" max="5" width="20.28515625" customWidth="1"/>
     <col min="6" max="6" width="16.28515625" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" customWidth="1"/>
-    <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
-    <col min="13" max="13" width="16.28515625" customWidth="1"/>
-    <col min="14" max="14" width="18" customWidth="1"/>
-    <col min="15" max="16" width="11.42578125" customWidth="1"/>
+    <col min="7" max="8" width="16.140625" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" customWidth="1"/>
+    <col min="14" max="14" width="16.28515625" customWidth="1"/>
+    <col min="15" max="15" width="18" customWidth="1"/>
+    <col min="16" max="17" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="114" t="s">
+    <row r="1" spans="1:17" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="109" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="114"/>
-      <c r="N1" s="50"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
       <c r="O1" s="50"/>
       <c r="P1" s="50"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="113" t="s">
+      <c r="Q1" s="50"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="108" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="113"/>
-      <c r="M2" s="113"/>
-      <c r="N2" s="51"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="108"/>
+      <c r="N2" s="108"/>
       <c r="O2" s="51"/>
       <c r="P2" s="51"/>
-    </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="105" t="s">
+      <c r="Q2" s="51"/>
+    </row>
+    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="107" t="s">
+      <c r="B3" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="109" t="s">
+      <c r="C3" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="102" t="s">
+      <c r="D3" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="111" t="s">
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="102" t="s">
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="106"/>
+      <c r="K3" s="107"/>
+      <c r="L3" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="104"/>
-      <c r="M3" s="64" t="s">
+      <c r="M3" s="99"/>
+      <c r="N3" s="62" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="106"/>
-      <c r="B4" s="107"/>
-      <c r="C4" s="109"/>
+    <row r="4" spans="1:17" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="101"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="104"/>
       <c r="D4" s="44" t="s">
         <v>96</v>
       </c>
@@ -2870,26 +2871,29 @@
       <c r="G4" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="H4" s="34" t="s">
+      <c r="H4" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="I4" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="J4" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="K4" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="K4" s="44" t="s">
+      <c r="L4" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="44" t="s">
+      <c r="M4" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="M4" s="15" t="s">
+      <c r="N4" s="15" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="45">
         <v>1</v>
       </c>
@@ -2902,37 +2906,40 @@
       <c r="D5" s="35">
         <v>48</v>
       </c>
-      <c r="E5" s="76">
+      <c r="E5" s="74">
         <v>4</v>
       </c>
       <c r="F5" s="38">
         <v>2</v>
       </c>
       <c r="G5" s="16">
+        <v>102</v>
+      </c>
+      <c r="H5" s="110">
         <v>122</v>
       </c>
-      <c r="H5" s="48">
-        <v>49</v>
-      </c>
-      <c r="I5" s="40">
-        <f>H5/G5</f>
-        <v>0.40163934426229508</v>
-      </c>
-      <c r="J5" s="17">
-        <f>G5-H5</f>
-        <v>73</v>
-      </c>
-      <c r="K5" s="60">
+      <c r="I5" s="48">
+        <v>40</v>
+      </c>
+      <c r="J5" s="40">
+        <f>I5/G5</f>
+        <v>0.39215686274509803</v>
+      </c>
+      <c r="K5" s="17">
+        <f>G5-I5</f>
+        <v>62</v>
+      </c>
+      <c r="L5" s="48">
         <v>0.85899999999999999</v>
       </c>
-      <c r="L5" s="82" t="s">
+      <c r="M5" s="80" t="s">
         <v>105</v>
       </c>
-      <c r="M5" s="73" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N5" s="71" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="24">
         <f>A5+1</f>
         <v>2</v>
@@ -2946,37 +2953,40 @@
       <c r="D6" s="36">
         <v>48</v>
       </c>
-      <c r="E6" s="77">
+      <c r="E6" s="75">
         <v>2</v>
       </c>
       <c r="F6" s="26">
         <v>1</v>
       </c>
       <c r="G6" s="18">
+        <v>102</v>
+      </c>
+      <c r="H6" s="111">
         <v>122</v>
       </c>
-      <c r="H6" s="22">
+      <c r="I6" s="22">
+        <v>42</v>
+      </c>
+      <c r="J6" s="41">
+        <f>I6/G6</f>
+        <v>0.41176470588235292</v>
+      </c>
+      <c r="K6" s="19">
+        <f>G6-I6</f>
         <v>60</v>
       </c>
-      <c r="I6" s="41">
-        <f>H6/G6</f>
-        <v>0.49180327868852458</v>
-      </c>
-      <c r="J6" s="19">
-        <f>G6-H6</f>
-        <v>62</v>
-      </c>
-      <c r="K6" s="25">
+      <c r="L6" s="22">
         <v>0.84399999999999997</v>
       </c>
-      <c r="L6" s="82" t="s">
+      <c r="M6" s="80" t="s">
         <v>105</v>
       </c>
-      <c r="M6" s="73" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N6" s="71" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="24">
         <f t="shared" ref="A7:A43" si="0">A6+1</f>
         <v>3</v>
@@ -2990,37 +3000,40 @@
       <c r="D7" s="36">
         <v>48</v>
       </c>
-      <c r="E7" s="77">
+      <c r="E7" s="75">
         <v>1</v>
       </c>
       <c r="F7" s="26">
         <v>1</v>
       </c>
       <c r="G7" s="18">
+        <v>102</v>
+      </c>
+      <c r="H7" s="111">
         <v>122</v>
       </c>
-      <c r="H7" s="22">
-        <v>40</v>
-      </c>
-      <c r="I7" s="41">
-        <f>H7/G7</f>
-        <v>0.32786885245901637</v>
-      </c>
-      <c r="J7" s="19">
-        <f>G7-H7</f>
-        <v>82</v>
-      </c>
-      <c r="K7" s="25">
+      <c r="I7" s="22">
+        <v>30</v>
+      </c>
+      <c r="J7" s="41">
+        <f>I7/G7</f>
+        <v>0.29411764705882354</v>
+      </c>
+      <c r="K7" s="19">
+        <f>G7-I7</f>
+        <v>72</v>
+      </c>
+      <c r="L7" s="22">
         <v>0.87</v>
       </c>
-      <c r="L7" s="82" t="s">
+      <c r="M7" s="80" t="s">
         <v>105</v>
       </c>
-      <c r="M7" s="73" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N7" s="71" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="24">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3034,37 +3047,40 @@
       <c r="D8" s="36">
         <v>48</v>
       </c>
-      <c r="E8" s="77">
+      <c r="E8" s="75">
         <v>2</v>
       </c>
       <c r="F8" s="26">
         <v>2</v>
       </c>
       <c r="G8" s="18">
+        <v>102</v>
+      </c>
+      <c r="H8" s="111">
         <v>122</v>
       </c>
-      <c r="H8" s="10">
+      <c r="I8" s="10">
         <v>52</v>
       </c>
-      <c r="I8" s="41">
-        <f>H8/G8</f>
-        <v>0.42622950819672129</v>
-      </c>
-      <c r="J8" s="19">
-        <f>G8-H8</f>
-        <v>70</v>
-      </c>
-      <c r="K8" s="25">
+      <c r="J8" s="41">
+        <f>I8/G8</f>
+        <v>0.50980392156862742</v>
+      </c>
+      <c r="K8" s="19">
+        <f>G8-I8</f>
+        <v>50</v>
+      </c>
+      <c r="L8" s="22">
         <v>0.80700000000000005</v>
       </c>
-      <c r="L8" s="81" t="s">
+      <c r="M8" s="79" t="s">
         <v>106</v>
       </c>
-      <c r="M8" s="73" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N8" s="71" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="24">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3072,31 +3088,34 @@
       <c r="B9" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="61">
+      <c r="C9" s="59">
         <v>57</v>
       </c>
       <c r="D9" s="56">
         <v>37</v>
       </c>
-      <c r="E9" s="78">
+      <c r="E9" s="76">
         <v>2</v>
       </c>
       <c r="F9" s="33"/>
-      <c r="G9" s="56">
-        <v>120</v>
-      </c>
-      <c r="H9" s="33"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="80">
+      <c r="G9" s="18">
         <v>100</v>
       </c>
-      <c r="K9" s="56"/>
-      <c r="L9" s="83"/>
-      <c r="M9" s="73" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H9" s="111">
+        <v>120</v>
+      </c>
+      <c r="I9" s="33"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="78">
+        <v>100</v>
+      </c>
+      <c r="L9" s="33"/>
+      <c r="M9" s="81"/>
+      <c r="N9" s="71" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="24">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3110,37 +3129,40 @@
       <c r="D10" s="25">
         <v>39</v>
       </c>
-      <c r="E10" s="78">
+      <c r="E10" s="76">
         <v>2</v>
       </c>
       <c r="F10" s="22">
         <v>1</v>
       </c>
-      <c r="G10" s="25">
-        <v>120</v>
-      </c>
-      <c r="H10" s="10">
+      <c r="G10" s="18">
+        <v>100</v>
+      </c>
+      <c r="H10" s="111">
+        <v>120</v>
+      </c>
+      <c r="I10" s="10">
         <v>45</v>
       </c>
-      <c r="I10" s="41">
-        <f t="shared" ref="I10:I16" si="1">H10/G10</f>
-        <v>0.375</v>
-      </c>
-      <c r="J10" s="19">
-        <f t="shared" ref="J10:J16" si="2">G10-H10</f>
-        <v>75</v>
-      </c>
-      <c r="K10" s="25">
+      <c r="J10" s="41">
+        <f>I10/G10</f>
+        <v>0.45</v>
+      </c>
+      <c r="K10" s="19">
+        <f>G10-I10</f>
+        <v>55</v>
+      </c>
+      <c r="L10" s="22">
         <v>0.78600000000000003</v>
       </c>
-      <c r="L10" s="84" t="s">
+      <c r="M10" s="82" t="s">
         <v>106</v>
       </c>
-      <c r="M10" s="73" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N10" s="71" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="24">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3160,29 +3182,32 @@
       <c r="F11" s="22">
         <v>2</v>
       </c>
-      <c r="G11" s="25">
-        <v>120</v>
-      </c>
-      <c r="H11" s="10">
+      <c r="G11" s="18">
+        <v>100</v>
+      </c>
+      <c r="H11" s="111">
+        <v>120</v>
+      </c>
+      <c r="I11" s="10">
         <v>45</v>
       </c>
-      <c r="I11" s="41">
-        <f t="shared" si="1"/>
-        <v>0.375</v>
-      </c>
-      <c r="J11" s="19">
-        <f t="shared" si="2"/>
-        <v>75</v>
-      </c>
-      <c r="K11" s="25">
+      <c r="J11" s="41">
+        <f>I11/G11</f>
+        <v>0.45</v>
+      </c>
+      <c r="K11" s="19">
+        <f>G11-I11</f>
+        <v>55</v>
+      </c>
+      <c r="L11" s="22">
         <v>0.83299999999999996</v>
       </c>
-      <c r="L11" s="84" t="s">
+      <c r="M11" s="82" t="s">
         <v>106</v>
       </c>
-      <c r="M11" s="66"/>
-    </row>
-    <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N11" s="64"/>
+    </row>
+    <row r="12" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="24">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3196,37 +3221,40 @@
       <c r="D12" s="36">
         <v>41</v>
       </c>
-      <c r="E12" s="72">
+      <c r="E12" s="70">
         <v>6</v>
       </c>
       <c r="F12" s="26">
         <v>3</v>
       </c>
       <c r="G12" s="18">
-        <v>120</v>
-      </c>
-      <c r="H12" s="22">
+        <v>100</v>
+      </c>
+      <c r="H12" s="111">
+        <v>120</v>
+      </c>
+      <c r="I12" s="22">
         <v>55</v>
       </c>
-      <c r="I12" s="41">
-        <f t="shared" si="1"/>
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="J12" s="19">
-        <f t="shared" si="2"/>
-        <v>65</v>
-      </c>
-      <c r="K12" s="25">
+      <c r="J12" s="41">
+        <f>I12/G12</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K12" s="19">
+        <f>G12-I12</f>
+        <v>45</v>
+      </c>
+      <c r="L12" s="22">
         <v>0.84399999999999997</v>
       </c>
-      <c r="L12" s="85" t="s">
+      <c r="M12" s="83" t="s">
         <v>107</v>
       </c>
-      <c r="M12" s="73" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N12" s="71" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="24">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3246,29 +3274,32 @@
       <c r="F13" s="22">
         <v>3</v>
       </c>
-      <c r="G13" s="25">
-        <v>120</v>
-      </c>
-      <c r="H13" s="22">
+      <c r="G13" s="18">
+        <v>100</v>
+      </c>
+      <c r="H13" s="111">
+        <v>120</v>
+      </c>
+      <c r="I13" s="22">
         <v>51</v>
       </c>
-      <c r="I13" s="41">
-        <f t="shared" si="1"/>
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="J13" s="19">
-        <f t="shared" si="2"/>
-        <v>69</v>
-      </c>
-      <c r="K13" s="25">
+      <c r="J13" s="41">
+        <f>I13/G13</f>
+        <v>0.51</v>
+      </c>
+      <c r="K13" s="19">
+        <f>G13-I13</f>
+        <v>49</v>
+      </c>
+      <c r="L13" s="22">
         <v>0.82799999999999996</v>
       </c>
-      <c r="L13" s="84" t="s">
+      <c r="M13" s="82" t="s">
         <v>106</v>
       </c>
-      <c r="M13" s="66"/>
-    </row>
-    <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N13" s="64"/>
+    </row>
+    <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="24">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3282,37 +3313,40 @@
       <c r="D14" s="25">
         <v>49</v>
       </c>
-      <c r="E14" s="78">
+      <c r="E14" s="76">
         <v>1</v>
       </c>
       <c r="F14" s="22">
         <v>3</v>
       </c>
-      <c r="G14" s="25">
-        <v>120</v>
-      </c>
-      <c r="H14" s="22">
+      <c r="G14" s="18">
+        <v>100</v>
+      </c>
+      <c r="H14" s="111">
+        <v>120</v>
+      </c>
+      <c r="I14" s="22">
         <v>48</v>
       </c>
-      <c r="I14" s="41">
-        <f t="shared" si="1"/>
-        <v>0.4</v>
-      </c>
-      <c r="J14" s="19">
-        <f t="shared" si="2"/>
-        <v>72</v>
-      </c>
-      <c r="K14" s="25">
+      <c r="J14" s="41">
+        <f>I14/G14</f>
+        <v>0.48</v>
+      </c>
+      <c r="K14" s="19">
+        <f>G14-I14</f>
+        <v>52</v>
+      </c>
+      <c r="L14" s="22">
         <v>0.83499999999999996</v>
       </c>
-      <c r="L14" s="84" t="s">
+      <c r="M14" s="82" t="s">
         <v>106</v>
       </c>
-      <c r="M14" s="73" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N14" s="71" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="24">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3326,37 +3360,40 @@
       <c r="D15" s="25">
         <v>49</v>
       </c>
-      <c r="E15" s="78">
+      <c r="E15" s="76">
         <v>2</v>
       </c>
       <c r="F15" s="22">
         <v>1</v>
       </c>
-      <c r="G15" s="25">
-        <v>120</v>
-      </c>
-      <c r="H15" s="22">
+      <c r="G15" s="18">
+        <v>100</v>
+      </c>
+      <c r="H15" s="111">
+        <v>120</v>
+      </c>
+      <c r="I15" s="22">
         <v>51</v>
       </c>
-      <c r="I15" s="41">
-        <f t="shared" si="1"/>
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="J15" s="19">
-        <f t="shared" si="2"/>
-        <v>69</v>
-      </c>
-      <c r="K15" s="25">
+      <c r="J15" s="41">
+        <f>I15/G15</f>
+        <v>0.51</v>
+      </c>
+      <c r="K15" s="19">
+        <f>G15-I15</f>
+        <v>49</v>
+      </c>
+      <c r="L15" s="22">
         <v>0.85499999999999998</v>
       </c>
-      <c r="L15" s="86" t="s">
+      <c r="M15" s="84" t="s">
         <v>99</v>
       </c>
-      <c r="M15" s="73" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N15" s="71" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="24">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3370,37 +3407,40 @@
       <c r="D16" s="25">
         <v>49</v>
       </c>
-      <c r="E16" s="78">
+      <c r="E16" s="76">
         <v>2</v>
       </c>
       <c r="F16" s="22">
         <v>5</v>
       </c>
-      <c r="G16" s="25">
-        <v>120</v>
-      </c>
-      <c r="H16" s="22">
+      <c r="G16" s="18">
+        <v>100</v>
+      </c>
+      <c r="H16" s="111">
+        <v>120</v>
+      </c>
+      <c r="I16" s="22">
         <v>52</v>
       </c>
-      <c r="I16" s="41">
-        <f t="shared" si="1"/>
-        <v>0.43333333333333335</v>
-      </c>
-      <c r="J16" s="19">
-        <f t="shared" si="2"/>
-        <v>68</v>
-      </c>
-      <c r="K16" s="25">
+      <c r="J16" s="41">
+        <f>I16/G16</f>
+        <v>0.52</v>
+      </c>
+      <c r="K16" s="19">
+        <f>G16-I16</f>
+        <v>48</v>
+      </c>
+      <c r="L16" s="22">
         <v>0.84099999999999997</v>
       </c>
-      <c r="L16" s="81" t="s">
+      <c r="M16" s="79" t="s">
         <v>106</v>
       </c>
-      <c r="M16" s="73" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N16" s="71" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="24">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3414,37 +3454,40 @@
       <c r="D17" s="25">
         <v>57</v>
       </c>
-      <c r="E17" s="78">
+      <c r="E17" s="76">
         <v>1</v>
       </c>
       <c r="F17" s="10">
         <v>7</v>
       </c>
-      <c r="G17" s="25">
+      <c r="G17" s="18">
+        <v>114</v>
+      </c>
+      <c r="H17" s="111">
         <v>134</v>
       </c>
-      <c r="H17" s="10">
+      <c r="I17" s="10">
         <v>54</v>
       </c>
-      <c r="I17" s="41">
-        <f>H13/G17</f>
-        <v>0.38059701492537312</v>
-      </c>
-      <c r="J17" s="19">
-        <f>G17-H13</f>
-        <v>83</v>
-      </c>
-      <c r="K17" s="25">
+      <c r="J17" s="41">
+        <f>I13/G17</f>
+        <v>0.44736842105263158</v>
+      </c>
+      <c r="K17" s="19">
+        <f>G17-I13</f>
+        <v>63</v>
+      </c>
+      <c r="L17" s="22">
         <v>0.83599999999999997</v>
       </c>
-      <c r="L17" s="84" t="s">
+      <c r="M17" s="82" t="s">
         <v>106</v>
       </c>
-      <c r="M17" s="73" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N17" s="71" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="24">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3452,27 +3495,30 @@
       <c r="B18" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="62"/>
+      <c r="C18" s="60"/>
       <c r="D18" s="24">
         <v>40</v>
       </c>
-      <c r="E18" s="78">
+      <c r="E18" s="76">
         <v>3</v>
       </c>
       <c r="F18" s="33"/>
-      <c r="G18" s="24">
-        <v>120</v>
-      </c>
-      <c r="H18" s="33"/>
-      <c r="I18" s="79"/>
-      <c r="J18" s="80"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="83"/>
-      <c r="M18" s="73" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G18" s="18">
+        <v>100</v>
+      </c>
+      <c r="H18" s="111">
+        <v>120</v>
+      </c>
+      <c r="I18" s="33"/>
+      <c r="J18" s="77"/>
+      <c r="K18" s="78"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="81"/>
+      <c r="N18" s="71" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="24">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3486,37 +3532,40 @@
       <c r="D19" s="24">
         <v>46</v>
       </c>
-      <c r="E19" s="78">
+      <c r="E19" s="76">
         <v>2</v>
       </c>
       <c r="F19" s="10">
         <v>5</v>
       </c>
-      <c r="G19" s="24">
-        <v>120</v>
-      </c>
-      <c r="H19" s="22">
+      <c r="G19" s="18">
+        <v>100</v>
+      </c>
+      <c r="H19" s="111">
+        <v>120</v>
+      </c>
+      <c r="I19" s="22">
         <v>44</v>
       </c>
-      <c r="I19" s="41">
-        <f>H19/G19</f>
-        <v>0.36666666666666664</v>
-      </c>
-      <c r="J19" s="19">
-        <f>G19-H19</f>
-        <v>76</v>
-      </c>
-      <c r="K19" s="24">
+      <c r="J19" s="41">
+        <f>I19/G19</f>
+        <v>0.44</v>
+      </c>
+      <c r="K19" s="19">
+        <f>G19-I19</f>
+        <v>56</v>
+      </c>
+      <c r="L19" s="10">
         <v>0.83299999999999996</v>
       </c>
-      <c r="L19" s="85" t="s">
+      <c r="M19" s="83" t="s">
         <v>107</v>
       </c>
-      <c r="M19" s="73" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N19" s="71" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="24">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3536,29 +3585,32 @@
       <c r="F20" s="22">
         <v>1</v>
       </c>
-      <c r="G20" s="25">
-        <v>120</v>
-      </c>
-      <c r="H20" s="22">
+      <c r="G20" s="18">
+        <v>100</v>
+      </c>
+      <c r="H20" s="111">
+        <v>120</v>
+      </c>
+      <c r="I20" s="22">
         <v>48</v>
       </c>
-      <c r="I20" s="41">
-        <f>H20/G20</f>
-        <v>0.4</v>
-      </c>
-      <c r="J20" s="19">
-        <f>G20-H20</f>
-        <v>72</v>
-      </c>
-      <c r="K20" s="25">
+      <c r="J20" s="41">
+        <f>I20/G20</f>
+        <v>0.48</v>
+      </c>
+      <c r="K20" s="19">
+        <f>G20-I20</f>
+        <v>52</v>
+      </c>
+      <c r="L20" s="22">
         <v>0.84699999999999998</v>
       </c>
-      <c r="L20" s="84" t="s">
+      <c r="M20" s="82" t="s">
         <v>106</v>
       </c>
-      <c r="M20" s="66"/>
-    </row>
-    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N20" s="64"/>
+    </row>
+    <row r="21" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="24">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3572,37 +3624,40 @@
       <c r="D21" s="25">
         <v>46</v>
       </c>
-      <c r="E21" s="78">
+      <c r="E21" s="76">
         <v>2</v>
       </c>
       <c r="F21" s="22">
         <v>5</v>
       </c>
-      <c r="G21" s="25">
-        <v>120</v>
-      </c>
-      <c r="H21" s="22">
+      <c r="G21" s="18">
+        <v>100</v>
+      </c>
+      <c r="H21" s="111">
+        <v>120</v>
+      </c>
+      <c r="I21" s="22">
         <v>51</v>
       </c>
-      <c r="I21" s="41">
-        <f>H21/G21</f>
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="J21" s="19">
-        <f>G21-H21</f>
-        <v>69</v>
-      </c>
-      <c r="K21" s="25">
+      <c r="J21" s="41">
+        <f>I21/G21</f>
+        <v>0.51</v>
+      </c>
+      <c r="K21" s="19">
+        <f>G21-I21</f>
+        <v>49</v>
+      </c>
+      <c r="L21" s="22">
         <v>0.81799999999999995</v>
       </c>
-      <c r="L21" s="88" t="s">
+      <c r="M21" s="86" t="s">
         <v>107</v>
       </c>
-      <c r="M21" s="73" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N21" s="71" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="24">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3610,29 +3665,32 @@
       <c r="B22" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="61">
+      <c r="C22" s="59">
         <v>17</v>
       </c>
-      <c r="D22" s="90">
+      <c r="D22" s="87">
         <v>50</v>
       </c>
-      <c r="E22" s="77" t="s">
+      <c r="E22" s="75" t="s">
         <v>110</v>
       </c>
       <c r="F22" s="53"/>
-      <c r="G22" s="54">
-        <v>120</v>
-      </c>
-      <c r="H22" s="33"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="91"/>
-      <c r="L22" s="92"/>
-      <c r="M22" s="87" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G22" s="18">
+        <v>100</v>
+      </c>
+      <c r="H22" s="111">
+        <v>120</v>
+      </c>
+      <c r="I22" s="33"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="113"/>
+      <c r="M22" s="88"/>
+      <c r="N22" s="85" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="24">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3640,29 +3698,32 @@
       <c r="B23" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="61">
+      <c r="C23" s="59">
         <v>21</v>
       </c>
-      <c r="D23" s="90">
+      <c r="D23" s="87">
         <v>50</v>
       </c>
-      <c r="E23" s="77" t="s">
+      <c r="E23" s="75" t="s">
         <v>110</v>
       </c>
       <c r="F23" s="53"/>
-      <c r="G23" s="54">
-        <v>120</v>
-      </c>
-      <c r="H23" s="33"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="59"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="93"/>
-      <c r="M23" s="87" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G23" s="18">
+        <v>100</v>
+      </c>
+      <c r="H23" s="111">
+        <v>120</v>
+      </c>
+      <c r="I23" s="33"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="89"/>
+      <c r="N23" s="85" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="24">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3670,29 +3731,32 @@
       <c r="B24" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="61">
+      <c r="C24" s="59">
         <v>16</v>
       </c>
-      <c r="D24" s="90">
+      <c r="D24" s="87">
         <v>50</v>
       </c>
-      <c r="E24" s="77" t="s">
+      <c r="E24" s="75" t="s">
         <v>110</v>
       </c>
       <c r="F24" s="53"/>
-      <c r="G24" s="54">
-        <v>120</v>
-      </c>
-      <c r="H24" s="33"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="93"/>
-      <c r="M24" s="87" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G24" s="18">
+        <v>100</v>
+      </c>
+      <c r="H24" s="111">
+        <v>120</v>
+      </c>
+      <c r="I24" s="33"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="89"/>
+      <c r="N24" s="85" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="24">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3700,29 +3764,32 @@
       <c r="B25" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="61">
+      <c r="C25" s="59">
         <v>71</v>
       </c>
-      <c r="D25" s="90">
+      <c r="D25" s="87">
         <v>50</v>
       </c>
-      <c r="E25" s="77" t="s">
+      <c r="E25" s="75" t="s">
         <v>110</v>
       </c>
       <c r="F25" s="53"/>
-      <c r="G25" s="54">
-        <v>120</v>
-      </c>
-      <c r="H25" s="33"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="59"/>
-      <c r="K25" s="56"/>
-      <c r="L25" s="93"/>
-      <c r="M25" s="87" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G25" s="18">
+        <v>100</v>
+      </c>
+      <c r="H25" s="111">
+        <v>120</v>
+      </c>
+      <c r="I25" s="33"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="89"/>
+      <c r="N25" s="85" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="24">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3730,29 +3797,32 @@
       <c r="B26" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="61">
+      <c r="C26" s="59">
         <v>47</v>
       </c>
-      <c r="D26" s="90">
+      <c r="D26" s="87">
         <v>50</v>
       </c>
-      <c r="E26" s="77" t="s">
+      <c r="E26" s="75" t="s">
         <v>110</v>
       </c>
       <c r="F26" s="53"/>
-      <c r="G26" s="54">
-        <v>120</v>
-      </c>
-      <c r="H26" s="33"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="59"/>
-      <c r="K26" s="56"/>
-      <c r="L26" s="93"/>
-      <c r="M26" s="87" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G26" s="18">
+        <v>100</v>
+      </c>
+      <c r="H26" s="111">
+        <v>120</v>
+      </c>
+      <c r="I26" s="33"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="89"/>
+      <c r="N26" s="85" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="24">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3760,29 +3830,32 @@
       <c r="B27" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="61">
+      <c r="C27" s="59">
         <v>27</v>
       </c>
-      <c r="D27" s="90">
+      <c r="D27" s="87">
         <v>50</v>
       </c>
-      <c r="E27" s="77" t="s">
+      <c r="E27" s="75" t="s">
         <v>110</v>
       </c>
       <c r="F27" s="53"/>
-      <c r="G27" s="54">
-        <v>120</v>
-      </c>
-      <c r="H27" s="33"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="56"/>
-      <c r="L27" s="93"/>
-      <c r="M27" s="87" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G27" s="18">
+        <v>100</v>
+      </c>
+      <c r="H27" s="111">
+        <v>120</v>
+      </c>
+      <c r="I27" s="33"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="89"/>
+      <c r="N27" s="85" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="24">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3790,29 +3863,32 @@
       <c r="B28" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="61">
+      <c r="C28" s="59">
         <v>16</v>
       </c>
-      <c r="D28" s="90">
+      <c r="D28" s="87">
         <v>50</v>
       </c>
-      <c r="E28" s="77" t="s">
+      <c r="E28" s="75" t="s">
         <v>112</v>
       </c>
       <c r="F28" s="53"/>
-      <c r="G28" s="54">
-        <v>120</v>
-      </c>
-      <c r="H28" s="33"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="59"/>
-      <c r="K28" s="56"/>
-      <c r="L28" s="93"/>
-      <c r="M28" s="87" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G28" s="18">
+        <v>100</v>
+      </c>
+      <c r="H28" s="111">
+        <v>120</v>
+      </c>
+      <c r="I28" s="33"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="89"/>
+      <c r="N28" s="85" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="24">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3820,29 +3896,32 @@
       <c r="B29" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="C29" s="61">
+      <c r="C29" s="59">
         <v>67</v>
       </c>
-      <c r="D29" s="90">
+      <c r="D29" s="87">
         <v>50</v>
       </c>
-      <c r="E29" s="77" t="s">
+      <c r="E29" s="75" t="s">
         <v>110</v>
       </c>
       <c r="F29" s="53"/>
-      <c r="G29" s="54">
-        <v>120</v>
-      </c>
-      <c r="H29" s="33"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="59"/>
-      <c r="K29" s="56"/>
-      <c r="L29" s="93"/>
-      <c r="M29" s="87" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G29" s="18">
+        <v>100</v>
+      </c>
+      <c r="H29" s="111">
+        <v>120</v>
+      </c>
+      <c r="I29" s="33"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="89"/>
+      <c r="N29" s="85" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="24">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -3850,29 +3929,32 @@
       <c r="B30" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="C30" s="61">
+      <c r="C30" s="59">
         <v>20</v>
       </c>
-      <c r="D30" s="90">
+      <c r="D30" s="87">
         <v>50</v>
       </c>
-      <c r="E30" s="77" t="s">
+      <c r="E30" s="75" t="s">
         <v>110</v>
       </c>
       <c r="F30" s="53"/>
-      <c r="G30" s="54">
-        <v>120</v>
-      </c>
-      <c r="H30" s="33"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="59"/>
-      <c r="K30" s="56"/>
-      <c r="L30" s="93"/>
-      <c r="M30" s="87" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G30" s="18">
+        <v>100</v>
+      </c>
+      <c r="H30" s="111">
+        <v>120</v>
+      </c>
+      <c r="I30" s="33"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="89"/>
+      <c r="N30" s="85" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="24">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -3880,29 +3962,32 @@
       <c r="B31" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="C31" s="61">
+      <c r="C31" s="59">
         <v>28</v>
       </c>
-      <c r="D31" s="90">
+      <c r="D31" s="87">
         <v>50</v>
       </c>
-      <c r="E31" s="77" t="s">
+      <c r="E31" s="75" t="s">
         <v>111</v>
       </c>
       <c r="F31" s="53"/>
-      <c r="G31" s="54">
-        <v>120</v>
-      </c>
-      <c r="H31" s="33"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="59"/>
-      <c r="K31" s="56"/>
-      <c r="L31" s="93"/>
-      <c r="M31" s="87" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G31" s="18">
+        <v>100</v>
+      </c>
+      <c r="H31" s="111">
+        <v>120</v>
+      </c>
+      <c r="I31" s="33"/>
+      <c r="J31" s="55"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="89"/>
+      <c r="N31" s="85" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="24">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -3910,29 +3995,32 @@
       <c r="B32" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="C32" s="61">
+      <c r="C32" s="59">
         <v>24</v>
       </c>
-      <c r="D32" s="90">
+      <c r="D32" s="87">
         <v>50</v>
       </c>
-      <c r="E32" s="77" t="s">
+      <c r="E32" s="75" t="s">
         <v>111</v>
       </c>
       <c r="F32" s="53"/>
-      <c r="G32" s="54">
-        <v>120</v>
-      </c>
-      <c r="H32" s="33"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="59"/>
-      <c r="K32" s="94"/>
-      <c r="L32" s="95"/>
-      <c r="M32" s="87" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G32" s="18">
+        <v>100</v>
+      </c>
+      <c r="H32" s="111">
+        <v>120</v>
+      </c>
+      <c r="I32" s="33"/>
+      <c r="J32" s="55"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="114"/>
+      <c r="M32" s="90"/>
+      <c r="N32" s="85" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="24">
         <f>A39+1</f>
         <v>32</v>
@@ -3946,37 +4034,40 @@
       <c r="D33" s="36">
         <v>50</v>
       </c>
-      <c r="E33" s="77">
+      <c r="E33" s="75">
         <v>1</v>
       </c>
       <c r="F33" s="26">
         <v>2</v>
       </c>
       <c r="G33" s="18">
-        <v>120</v>
-      </c>
-      <c r="H33" s="89">
+        <v>100</v>
+      </c>
+      <c r="H33" s="111">
+        <v>120</v>
+      </c>
+      <c r="I33" s="22">
         <v>50</v>
       </c>
-      <c r="I33" s="41">
-        <f>H39/G33</f>
-        <v>0.4</v>
-      </c>
-      <c r="J33" s="19">
-        <f>G33-H39</f>
-        <v>72</v>
-      </c>
-      <c r="K33" s="25">
+      <c r="J33" s="41">
+        <f>I39/G33</f>
+        <v>0.48</v>
+      </c>
+      <c r="K33" s="19">
+        <f>G33-I39</f>
+        <v>52</v>
+      </c>
+      <c r="L33" s="22">
         <v>0.84699999999999998</v>
       </c>
-      <c r="L33" s="81" t="s">
+      <c r="M33" s="79" t="s">
         <v>106</v>
       </c>
-      <c r="M33" s="73" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N33" s="71" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="24">
         <f>A33+1</f>
         <v>33</v>
@@ -3990,37 +4081,40 @@
       <c r="D34" s="36">
         <v>50</v>
       </c>
-      <c r="E34" s="72">
+      <c r="E34" s="70">
         <v>2</v>
       </c>
       <c r="F34" s="26">
         <v>1</v>
       </c>
       <c r="G34" s="18">
-        <v>120</v>
-      </c>
-      <c r="H34" s="22">
+        <v>100</v>
+      </c>
+      <c r="H34" s="111">
+        <v>120</v>
+      </c>
+      <c r="I34" s="22">
         <v>47</v>
       </c>
-      <c r="I34" s="41">
-        <f t="shared" ref="I34:I43" si="3">H34/G34</f>
-        <v>0.39166666666666666</v>
-      </c>
-      <c r="J34" s="19">
-        <f t="shared" ref="J34:J40" si="4">G34-H34</f>
-        <v>73</v>
-      </c>
-      <c r="K34" s="25">
+      <c r="J34" s="41">
+        <f>I34/G34</f>
+        <v>0.47</v>
+      </c>
+      <c r="K34" s="19">
+        <f>G34-I34</f>
+        <v>53</v>
+      </c>
+      <c r="L34" s="22">
         <v>0.81100000000000005</v>
       </c>
-      <c r="L34" s="84" t="s">
+      <c r="M34" s="82" t="s">
         <v>106</v>
       </c>
-      <c r="M34" s="73" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N34" s="71" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="24">
         <f>A32+1</f>
         <v>29</v>
@@ -4034,37 +4128,40 @@
       <c r="D35" s="36">
         <v>52</v>
       </c>
-      <c r="E35" s="72">
+      <c r="E35" s="70">
         <v>2</v>
       </c>
       <c r="F35" s="26">
         <v>4</v>
       </c>
       <c r="G35" s="18">
+        <v>104</v>
+      </c>
+      <c r="H35" s="111">
         <v>124</v>
       </c>
-      <c r="H35" s="22">
+      <c r="I35" s="22">
         <v>55</v>
       </c>
-      <c r="I35" s="41">
-        <f t="shared" si="3"/>
-        <v>0.44354838709677419</v>
-      </c>
-      <c r="J35" s="19">
-        <f t="shared" si="4"/>
-        <v>69</v>
-      </c>
-      <c r="K35" s="24">
+      <c r="J35" s="41">
+        <f>I35/G35</f>
+        <v>0.52884615384615385</v>
+      </c>
+      <c r="K35" s="19">
+        <f>G35-I35</f>
+        <v>49</v>
+      </c>
+      <c r="L35" s="10">
         <v>0.87</v>
       </c>
-      <c r="L35" s="86" t="s">
+      <c r="M35" s="84" t="s">
         <v>99</v>
       </c>
-      <c r="M35" s="73" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N35" s="71" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="24">
         <f>A34+1</f>
         <v>34</v>
@@ -4078,37 +4175,40 @@
       <c r="D36" s="36">
         <v>53</v>
       </c>
-      <c r="E36" s="72">
+      <c r="E36" s="70">
         <v>13</v>
       </c>
       <c r="F36" s="26">
         <v>3</v>
       </c>
       <c r="G36" s="18">
+        <v>106</v>
+      </c>
+      <c r="H36" s="111">
         <v>126</v>
       </c>
-      <c r="H36" s="22">
+      <c r="I36" s="22">
         <v>43</v>
       </c>
-      <c r="I36" s="41">
-        <f t="shared" si="3"/>
-        <v>0.34126984126984128</v>
-      </c>
-      <c r="J36" s="19">
-        <f t="shared" si="4"/>
-        <v>83</v>
-      </c>
-      <c r="K36" s="25">
+      <c r="J36" s="41">
+        <f>I36/G36</f>
+        <v>0.40566037735849059</v>
+      </c>
+      <c r="K36" s="19">
+        <f>G36-I36</f>
+        <v>63</v>
+      </c>
+      <c r="L36" s="22">
         <v>0.83</v>
       </c>
-      <c r="L36" s="84" t="s">
+      <c r="M36" s="82" t="s">
         <v>106</v>
       </c>
-      <c r="M36" s="73" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N36" s="71" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="24">
         <f>A36+1</f>
         <v>35</v>
@@ -4122,37 +4222,40 @@
       <c r="D37" s="36">
         <v>51</v>
       </c>
-      <c r="E37" s="72">
+      <c r="E37" s="70">
         <v>1</v>
       </c>
       <c r="F37" s="26">
         <v>2</v>
       </c>
       <c r="G37" s="18">
+        <v>102</v>
+      </c>
+      <c r="H37" s="111">
         <v>122</v>
       </c>
-      <c r="H37" s="22">
+      <c r="I37" s="22">
         <v>58</v>
       </c>
-      <c r="I37" s="41">
-        <f t="shared" si="3"/>
-        <v>0.47540983606557374</v>
-      </c>
-      <c r="J37" s="19">
-        <f t="shared" si="4"/>
-        <v>64</v>
-      </c>
-      <c r="K37" s="25">
+      <c r="J37" s="41">
+        <f>I37/G37</f>
+        <v>0.56862745098039214</v>
+      </c>
+      <c r="K37" s="19">
+        <f>G37-I37</f>
+        <v>44</v>
+      </c>
+      <c r="L37" s="22">
         <v>0.84799999999999998</v>
       </c>
-      <c r="L37" s="86" t="s">
+      <c r="M37" s="84" t="s">
         <v>99</v>
       </c>
-      <c r="M37" s="73" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N37" s="71" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="24">
         <f>A37+1</f>
         <v>36</v>
@@ -4166,37 +4269,40 @@
       <c r="D38" s="36">
         <v>55</v>
       </c>
-      <c r="E38" s="72">
+      <c r="E38" s="70">
         <v>1</v>
       </c>
       <c r="F38" s="26">
         <v>5</v>
       </c>
       <c r="G38" s="18">
+        <v>110</v>
+      </c>
+      <c r="H38" s="111">
         <v>130</v>
       </c>
-      <c r="H38" s="22">
+      <c r="I38" s="22">
         <v>47</v>
       </c>
-      <c r="I38" s="41">
-        <f t="shared" si="3"/>
-        <v>0.36153846153846153</v>
-      </c>
-      <c r="J38" s="19">
-        <f t="shared" si="4"/>
-        <v>83</v>
-      </c>
-      <c r="K38" s="25">
+      <c r="J38" s="41">
+        <f>I38/G38</f>
+        <v>0.42727272727272725</v>
+      </c>
+      <c r="K38" s="19">
+        <f>G38-I38</f>
+        <v>63</v>
+      </c>
+      <c r="L38" s="22">
         <v>0.84299999999999997</v>
       </c>
-      <c r="L38" s="84" t="s">
+      <c r="M38" s="82" t="s">
         <v>106</v>
       </c>
-      <c r="M38" s="73" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N38" s="71" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="24">
         <f>A40+1</f>
         <v>31</v>
@@ -4210,37 +4316,40 @@
       <c r="D39" s="36">
         <v>49</v>
       </c>
-      <c r="E39" s="72">
+      <c r="E39" s="70">
         <v>8</v>
       </c>
       <c r="F39" s="26">
         <v>5</v>
       </c>
       <c r="G39" s="18">
+        <v>105</v>
+      </c>
+      <c r="H39" s="111">
         <v>125</v>
       </c>
-      <c r="H39" s="8">
+      <c r="I39" s="8">
         <v>48</v>
       </c>
-      <c r="I39" s="41">
-        <f t="shared" si="3"/>
-        <v>0.38400000000000001</v>
-      </c>
-      <c r="J39" s="19">
-        <f t="shared" si="4"/>
-        <v>77</v>
-      </c>
-      <c r="K39" s="25">
+      <c r="J39" s="41">
+        <f>I39/G39</f>
+        <v>0.45714285714285713</v>
+      </c>
+      <c r="K39" s="19">
+        <f>G39-I39</f>
+        <v>57</v>
+      </c>
+      <c r="L39" s="22">
         <v>0.80700000000000005</v>
       </c>
-      <c r="L39" s="84" t="s">
+      <c r="M39" s="82" t="s">
         <v>106</v>
       </c>
-      <c r="M39" s="73" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N39" s="71" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="24">
         <f>A35+1</f>
         <v>30</v>
@@ -4254,37 +4363,40 @@
       <c r="D40" s="36">
         <v>48</v>
       </c>
-      <c r="E40" s="72">
+      <c r="E40" s="70">
         <v>1</v>
       </c>
       <c r="F40" s="26">
         <v>2</v>
       </c>
       <c r="G40" s="18">
-        <v>120</v>
-      </c>
-      <c r="H40" s="8">
+        <v>100</v>
+      </c>
+      <c r="H40" s="111">
+        <v>120</v>
+      </c>
+      <c r="I40" s="8">
         <v>53</v>
       </c>
-      <c r="I40" s="41">
-        <f t="shared" si="3"/>
-        <v>0.44166666666666665</v>
-      </c>
-      <c r="J40" s="19">
-        <f t="shared" si="4"/>
-        <v>67</v>
-      </c>
-      <c r="K40" s="24">
+      <c r="J40" s="41">
+        <f>I40/G40</f>
+        <v>0.53</v>
+      </c>
+      <c r="K40" s="19">
+        <f>G40-I40</f>
+        <v>47</v>
+      </c>
+      <c r="L40" s="10">
         <v>0.84199999999999997</v>
       </c>
-      <c r="L40" s="84" t="s">
+      <c r="M40" s="82" t="s">
         <v>106</v>
       </c>
-      <c r="M40" s="73" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N40" s="71" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="24">
         <f>A38+1</f>
         <v>37</v>
@@ -4298,37 +4410,40 @@
       <c r="D41" s="36">
         <v>51</v>
       </c>
-      <c r="E41" s="72">
+      <c r="E41" s="70">
         <v>7</v>
       </c>
       <c r="F41" s="26">
         <v>3</v>
       </c>
       <c r="G41" s="18">
+        <v>102</v>
+      </c>
+      <c r="H41" s="111">
         <v>122</v>
       </c>
-      <c r="H41" s="22">
-        <f>G41-J41</f>
-        <v>39</v>
-      </c>
-      <c r="I41" s="41">
-        <f t="shared" si="3"/>
-        <v>0.31967213114754101</v>
-      </c>
-      <c r="J41" s="19">
+      <c r="I41" s="22">
+        <f>G41-K41</f>
+        <v>19</v>
+      </c>
+      <c r="J41" s="41">
+        <f>I41/G41</f>
+        <v>0.18627450980392157</v>
+      </c>
+      <c r="K41" s="19">
         <v>83</v>
       </c>
-      <c r="K41" s="24">
+      <c r="L41" s="10">
         <v>0.82899999999999996</v>
       </c>
-      <c r="L41" s="81" t="s">
+      <c r="M41" s="79" t="s">
         <v>106</v>
       </c>
-      <c r="M41" s="73" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N41" s="71" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="24">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -4342,37 +4457,40 @@
       <c r="D42" s="36">
         <v>45</v>
       </c>
-      <c r="E42" s="72">
+      <c r="E42" s="70">
         <v>1</v>
       </c>
       <c r="F42" s="26">
         <v>5</v>
       </c>
       <c r="G42" s="18">
+        <v>102</v>
+      </c>
+      <c r="H42" s="111">
         <v>122</v>
       </c>
-      <c r="H42" s="22">
+      <c r="I42" s="22">
         <v>47</v>
       </c>
-      <c r="I42" s="41">
-        <f t="shared" si="3"/>
-        <v>0.38524590163934425</v>
-      </c>
-      <c r="J42" s="19">
-        <f>G42-H42</f>
-        <v>75</v>
-      </c>
-      <c r="K42" s="24">
+      <c r="J42" s="41">
+        <f>I42/G42</f>
+        <v>0.46078431372549017</v>
+      </c>
+      <c r="K42" s="19">
+        <f>G42-I42</f>
+        <v>55</v>
+      </c>
+      <c r="L42" s="10">
         <v>0.84</v>
       </c>
-      <c r="L42" s="86" t="s">
+      <c r="M42" s="84" t="s">
         <v>99</v>
       </c>
-      <c r="M42" s="73" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N42" s="71" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="46">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -4386,46 +4504,49 @@
       <c r="D43" s="37">
         <v>52</v>
       </c>
-      <c r="E43" s="74">
+      <c r="E43" s="72">
         <v>2</v>
       </c>
       <c r="F43" s="39">
         <v>5</v>
       </c>
       <c r="G43" s="20">
+        <v>104</v>
+      </c>
+      <c r="H43" s="112">
         <v>124</v>
       </c>
-      <c r="H43" s="27">
+      <c r="I43" s="27">
         <v>45</v>
       </c>
-      <c r="I43" s="42">
-        <f t="shared" si="3"/>
-        <v>0.36290322580645162</v>
-      </c>
-      <c r="J43" s="21">
-        <f>G43-H43</f>
-        <v>79</v>
-      </c>
-      <c r="K43" s="46">
+      <c r="J43" s="42">
+        <f>I43/G43</f>
+        <v>0.43269230769230771</v>
+      </c>
+      <c r="K43" s="21">
+        <f>G43-I43</f>
+        <v>59</v>
+      </c>
+      <c r="L43" s="28">
         <v>0.84199999999999997</v>
       </c>
-      <c r="L43" s="86" t="s">
+      <c r="M43" s="84" t="s">
         <v>99</v>
       </c>
-      <c r="M43" s="73" t="s">
+      <c r="N43" s="71" t="s">
         <v>109</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A1:N1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="G3:K3"/>
     <mergeCell ref="D3:F3"/>
-    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="L3:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
